--- a/LubanTools/DesignerConfigs/Datas/物品配置表.xlsx
+++ b/LubanTools/DesignerConfigs/Datas/物品配置表.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21555" windowHeight="11670" activeTab="1"/>
+    <workbookView windowWidth="21555" windowHeight="11670" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="物品表" sheetId="1" r:id="rId1"/>
     <sheet name="物品质量表" sheetId="2" r:id="rId2"/>
     <sheet name="物品类型表" sheetId="3" r:id="rId3"/>
+    <sheet name="物品基础属性表" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -92,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="277">
   <si>
     <t>##var</t>
   </si>
@@ -778,60 +779,63 @@
     <t>描述</t>
   </si>
   <si>
-    <t>灰色</t>
+    <t>品质icon</t>
   </si>
   <si>
     <t>普通的</t>
   </si>
   <si>
-    <t>绿色</t>
+    <t>quality_1</t>
   </si>
   <si>
     <t>稀有的</t>
   </si>
   <si>
-    <t>蓝色</t>
+    <t>quality_2</t>
   </si>
   <si>
     <t>名贵的</t>
   </si>
   <si>
-    <t>紫色</t>
+    <t>quality_3</t>
   </si>
   <si>
     <t>史诗的</t>
   </si>
   <si>
-    <t>金色</t>
+    <t>quality_4</t>
   </si>
   <si>
     <t>传说的</t>
   </si>
   <si>
-    <t>橙色</t>
+    <t>quality_5</t>
   </si>
   <si>
     <t>珍稀的</t>
   </si>
   <si>
-    <t>红色</t>
+    <t>quality_6</t>
   </si>
   <si>
     <t>极品的</t>
   </si>
   <si>
-    <t>亮蓝色</t>
+    <t>quality_7</t>
   </si>
   <si>
     <t>神话的</t>
   </si>
   <si>
-    <t>粉色</t>
+    <t>quality_8</t>
   </si>
   <si>
     <t>超自然</t>
   </si>
   <si>
+    <t>quality_9</t>
+  </si>
+  <si>
     <t>text</t>
   </si>
   <si>
@@ -853,6 +857,9 @@
     <t>防御系数</t>
   </si>
   <si>
+    <t>品类图标</t>
+  </si>
+  <si>
     <t>犬科</t>
   </si>
   <si>
@@ -893,6 +900,30 @@
   </si>
   <si>
     <t>巢B类</t>
+  </si>
+  <si>
+    <t>hp_base</t>
+  </si>
+  <si>
+    <t>spd_base</t>
+  </si>
+  <si>
+    <t>atk_base</t>
+  </si>
+  <si>
+    <t>def_base</t>
+  </si>
+  <si>
+    <t>血量初始值</t>
+  </si>
+  <si>
+    <t>速度初始值</t>
+  </si>
+  <si>
+    <t>攻击初始值</t>
+  </si>
+  <si>
+    <t>防御初始值</t>
   </si>
 </sst>
 </file>
@@ -921,17 +952,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1112,11 +1143,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
@@ -1126,6 +1152,11 @@
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1724,16 +1755,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1752,13 +1783,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1767,19 +1798,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1791,13 +1822,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1809,7 +1840,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2163,7 +2194,7 @@
   <dimension ref="A1:I106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:G6"/>
+      <selection activeCell="E7" sqref="E7:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2215,7 +2246,7 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2244,17 +2275,17 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
@@ -4015,10 +4046,10 @@
       </c>
     </row>
     <row r="73" ht="14.25" spans="2:9">
-      <c r="B73" s="2">
+      <c r="B73" s="4">
         <v>107007</v>
       </c>
-      <c r="C73" s="2">
+      <c r="C73" s="4">
         <v>7</v>
       </c>
       <c r="D73" s="18" t="s">
@@ -4041,10 +4072,10 @@
       </c>
     </row>
     <row r="74" ht="14.25" spans="2:9">
-      <c r="B74" s="2">
+      <c r="B74" s="4">
         <v>107008</v>
       </c>
-      <c r="C74" s="2">
+      <c r="C74" s="4">
         <v>7</v>
       </c>
       <c r="D74" s="30" t="s">
@@ -4067,10 +4098,10 @@
       </c>
     </row>
     <row r="75" ht="14.25" spans="2:9">
-      <c r="B75" s="2">
+      <c r="B75" s="4">
         <v>107009</v>
       </c>
-      <c r="C75" s="2">
+      <c r="C75" s="4">
         <v>7</v>
       </c>
       <c r="D75" s="30" t="s">
@@ -4093,10 +4124,10 @@
       </c>
     </row>
     <row r="76" ht="15" spans="2:9">
-      <c r="B76" s="2">
+      <c r="B76" s="4">
         <v>107010</v>
       </c>
-      <c r="C76" s="2">
+      <c r="C76" s="4">
         <v>7</v>
       </c>
       <c r="D76" s="30" t="s">
@@ -4909,15 +4940,18 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="5" max="5" width="10.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4930,46 +4964,55 @@
       <c r="D1" s="1" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="5" t="s">
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -4982,104 +5025,134 @@
       <c r="D6" s="1" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="7" ht="14.25" spans="2:4">
-      <c r="B7" s="4" t="s">
+      <c r="E6" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C7" s="4">
+    </row>
+    <row r="7" ht="14.25" spans="2:5">
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
         <v>0.9</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="8" ht="14.25" spans="2:4">
-      <c r="B8" s="4" t="s">
+      <c r="E7" t="s">
         <v>230</v>
       </c>
-      <c r="C8" s="4">
+    </row>
+    <row r="8" ht="14.25" spans="2:5">
+      <c r="B8" s="3">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3">
         <v>1</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="9" ht="14.25" spans="2:4">
-      <c r="B9" s="4" t="s">
+      <c r="E8" t="s">
         <v>232</v>
       </c>
-      <c r="C9" s="4">
+    </row>
+    <row r="9" ht="14.25" spans="2:5">
+      <c r="B9" s="3">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3">
         <v>1.1</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="10" ht="14.25" spans="2:4">
-      <c r="B10" s="4" t="s">
+      <c r="E9" t="s">
         <v>234</v>
       </c>
-      <c r="C10" s="4">
+    </row>
+    <row r="10" ht="14.25" spans="2:5">
+      <c r="B10" s="3">
+        <v>4</v>
+      </c>
+      <c r="C10" s="3">
         <v>1.2</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="11" ht="14.25" spans="2:4">
-      <c r="B11" s="4" t="s">
+      <c r="E10" t="s">
         <v>236</v>
       </c>
-      <c r="C11" s="4">
+    </row>
+    <row r="11" ht="14.25" spans="2:5">
+      <c r="B11" s="3">
+        <v>5</v>
+      </c>
+      <c r="C11" s="3">
         <v>1.3</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="12" ht="14.25" spans="2:4">
-      <c r="B12" s="4" t="s">
+      <c r="E11" t="s">
         <v>238</v>
       </c>
-      <c r="C12" s="4">
+    </row>
+    <row r="12" ht="14.25" spans="2:5">
+      <c r="B12" s="3">
+        <v>6</v>
+      </c>
+      <c r="C12" s="3">
         <v>1.4</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="13" ht="14.25" spans="2:4">
-      <c r="B13" s="4" t="s">
+      <c r="E12" t="s">
         <v>240</v>
       </c>
-      <c r="C13" s="4">
+    </row>
+    <row r="13" ht="14.25" spans="2:5">
+      <c r="B13" s="3">
+        <v>7</v>
+      </c>
+      <c r="C13" s="3">
         <v>1.5</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="14" ht="14.25" spans="2:4">
-      <c r="B14" s="4" t="s">
+      <c r="E13" t="s">
         <v>242</v>
       </c>
-      <c r="C14" s="4">
+    </row>
+    <row r="14" ht="14.25" spans="2:5">
+      <c r="B14" s="3">
+        <v>8</v>
+      </c>
+      <c r="C14" s="3">
         <v>1.6</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="15" ht="14.25" spans="2:4">
-      <c r="B15" s="4" t="s">
+      <c r="E14" t="s">
         <v>244</v>
       </c>
-      <c r="C15" s="4">
+    </row>
+    <row r="15" ht="14.25" spans="2:5">
+      <c r="B15" s="3">
+        <v>9</v>
+      </c>
+      <c r="C15" s="3">
         <v>1.7</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>245</v>
+      </c>
+      <c r="E15" t="s">
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -5092,13 +5165,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="3" max="3" width="11.125" customWidth="1"/>
     <col min="4" max="4" width="13.125" customWidth="1"/>
@@ -5107,30 +5180,33 @@
     <col min="7" max="7" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:7">
+    <row r="1" ht="14.25" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -5140,42 +5216,47 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-    </row>
-    <row r="3" ht="14.25" spans="1:7">
-      <c r="A3" s="5" t="s">
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" ht="14.25" spans="1:8">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="5" t="s">
+      <c r="H3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -5185,265 +5266,398 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-    </row>
-    <row r="6" ht="14.25" spans="1:7">
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" ht="14.25" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25" spans="2:7">
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="D7" s="2">
+      <c r="H6" s="8" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" spans="2:8">
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="D7" s="4">
         <v>2</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="4">
         <v>6</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="4">
         <v>4</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" ht="14.25" spans="2:7">
-      <c r="B8" s="2">
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" ht="14.25" spans="2:8">
+      <c r="B8" s="4">
         <v>2</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="C8" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D8" s="4">
         <v>3</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="4">
         <v>8</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="5">
         <v>6</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" ht="14.25" spans="2:7">
-      <c r="B9" s="2">
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" ht="14.25" spans="2:8">
+      <c r="B9" s="4">
         <v>3</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="C9" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D9" s="5">
         <v>3</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="4">
         <v>7</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="4">
         <v>6</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" ht="14.25" spans="2:7">
-      <c r="B10" s="2">
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" ht="14.25" spans="2:8">
+      <c r="B10" s="4">
         <v>4</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="C10" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D10" s="4">
         <v>7</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="5">
         <v>4</v>
       </c>
       <c r="F10" s="9">
         <v>10</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" ht="14.25" spans="2:7">
-      <c r="B11" s="2">
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" ht="14.25" spans="2:8">
+      <c r="B11" s="4">
         <v>5</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>257</v>
+      <c r="C11" s="4" t="s">
+        <v>259</v>
       </c>
       <c r="D11" s="10">
         <v>10</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="4">
         <v>2</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="4">
         <v>8</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" ht="14.25" spans="2:7">
-      <c r="B12" s="2">
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" ht="14.25" spans="2:8">
+      <c r="B12" s="4">
         <v>6</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="C12" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="D12" s="4">
         <v>4</v>
       </c>
       <c r="E12" s="10">
         <v>10</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="4">
         <v>6</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" ht="14.25" spans="2:7">
-      <c r="B13" s="2">
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" ht="14.25" spans="2:8">
+      <c r="B13" s="4">
         <v>7</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="D13" s="2">
+      <c r="C13" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D13" s="4">
         <v>6</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>5</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <v>4</v>
       </c>
       <c r="G13" s="11">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" ht="14.25" spans="2:7">
-      <c r="B14" s="2">
+      <c r="H13" s="11"/>
+    </row>
+    <row r="14" ht="14.25" spans="2:8">
+      <c r="B14" s="4">
         <v>8</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="D14" s="2">
+      <c r="C14" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="D14" s="4">
         <v>8</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="4">
         <v>6</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="4">
         <v>8</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" ht="14.25" spans="2:7">
-      <c r="B15" s="2">
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" ht="14.25" spans="2:8">
+      <c r="B15" s="4">
         <v>9</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" ht="14.25" spans="2:7">
-      <c r="B16" s="2">
+      <c r="C15" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" ht="14.25" spans="2:8">
+      <c r="B16" s="4">
         <v>10</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
       <c r="F16" s="14"/>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" ht="14.25" spans="2:7">
-      <c r="B17" s="2">
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" ht="14.25" spans="2:8">
+      <c r="B17" s="4">
         <v>11</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
       <c r="F17" s="14"/>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" ht="14.25" spans="2:7">
-      <c r="B18" s="2">
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" ht="14.25" spans="2:8">
+      <c r="B18" s="4">
         <v>12</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
       <c r="F18" s="14"/>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" ht="14.25" spans="2:7">
-      <c r="B19" s="2">
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" ht="14.25" spans="2:8">
+      <c r="B19" s="4">
         <v>13</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
       <c r="F19" s="14"/>
       <c r="G19" s="13"/>
-    </row>
-    <row r="20" ht="14.25" spans="2:7">
-      <c r="B20" s="4">
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" ht="14.25" spans="2:8">
+      <c r="B20" s="3">
         <v>14</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>266</v>
+      <c r="C20" s="3" t="s">
+        <v>268</v>
       </c>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="14.375" customWidth="1"/>
+    <col min="4" max="4" width="12.875" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" spans="2:5">
+      <c r="B7" s="3">
+        <v>50</v>
+      </c>
+      <c r="C7" s="3">
+        <v>10</v>
+      </c>
+      <c r="D7" s="3">
+        <v>15</v>
+      </c>
+      <c r="E7" s="3">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/LubanTools/DesignerConfigs/Datas/物品配置表.xlsx
+++ b/LubanTools/DesignerConfigs/Datas/物品配置表.xlsx
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="289">
   <si>
     <t>##var</t>
   </si>
@@ -863,33 +863,63 @@
     <t>犬科</t>
   </si>
   <si>
+    <t>icon_type_dog</t>
+  </si>
+  <si>
     <t>猫科</t>
   </si>
   <si>
+    <t>icon_type_cat</t>
+  </si>
+  <si>
     <t>小型科</t>
   </si>
   <si>
+    <t>icon_type_small</t>
+  </si>
+  <si>
     <t>熊科</t>
   </si>
   <si>
+    <t>icon_type_bear</t>
+  </si>
+  <si>
     <t>大型类</t>
   </si>
   <si>
+    <t>icon_type_big</t>
+  </si>
+  <si>
     <t>鸟类</t>
   </si>
   <si>
+    <t>icon_type_bird</t>
+  </si>
+  <si>
     <t>鱼类</t>
   </si>
   <si>
+    <t>icon_type_fish</t>
+  </si>
+  <si>
     <t>异形类</t>
   </si>
   <si>
+    <t>icon_type_alien</t>
+  </si>
+  <si>
     <t>道具A类</t>
   </si>
   <si>
+    <t>icon_type_foodA</t>
+  </si>
+  <si>
     <t>道具B类</t>
   </si>
   <si>
+    <t>icon_type_food</t>
+  </si>
+  <si>
     <t>道具C类</t>
   </si>
   <si>
@@ -899,7 +929,13 @@
     <t>巢A类</t>
   </si>
   <si>
+    <t>icon_type_nestA</t>
+  </si>
+  <si>
     <t>巢B类</t>
+  </si>
+  <si>
+    <t>icon_type_nest</t>
   </si>
   <si>
     <t>hp_base</t>
@@ -1150,13 +1186,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
+      <sz val="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -5168,7 +5204,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -5178,6 +5214,7 @@
     <col min="5" max="5" width="11.75" customWidth="1"/>
     <col min="6" max="6" width="13.625" customWidth="1"/>
     <col min="7" max="7" width="11.875" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:8">
@@ -5313,14 +5350,16 @@
       <c r="G7" s="4">
         <v>3</v>
       </c>
-      <c r="H7" s="4"/>
+      <c r="H7" s="4" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="8" ht="14.25" spans="2:8">
       <c r="B8" s="4">
         <v>2</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D8" s="4">
         <v>3</v>
@@ -5334,14 +5373,16 @@
       <c r="G8" s="4">
         <v>2</v>
       </c>
-      <c r="H8" s="4"/>
+      <c r="H8" s="4" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="9" ht="14.25" spans="2:8">
       <c r="B9" s="4">
         <v>3</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D9" s="5">
         <v>3</v>
@@ -5355,14 +5396,16 @@
       <c r="G9" s="3">
         <v>4</v>
       </c>
-      <c r="H9" s="3"/>
+      <c r="H9" s="3" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="10" ht="14.25" spans="2:8">
       <c r="B10" s="4">
         <v>4</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D10" s="4">
         <v>7</v>
@@ -5376,14 +5419,16 @@
       <c r="G10" s="3">
         <v>3</v>
       </c>
-      <c r="H10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="11" ht="14.25" spans="2:8">
       <c r="B11" s="4">
         <v>5</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D11" s="10">
         <v>10</v>
@@ -5397,14 +5442,16 @@
       <c r="G11" s="4">
         <v>6</v>
       </c>
-      <c r="H11" s="4"/>
+      <c r="H11" s="4" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="12" ht="14.25" spans="2:8">
       <c r="B12" s="4">
         <v>6</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="D12" s="4">
         <v>4</v>
@@ -5418,14 +5465,16 @@
       <c r="G12" s="3">
         <v>3</v>
       </c>
-      <c r="H12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="13" ht="14.25" spans="2:8">
       <c r="B13" s="4">
         <v>7</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="D13" s="4">
         <v>6</v>
@@ -5439,14 +5488,16 @@
       <c r="G13" s="11">
         <v>10</v>
       </c>
-      <c r="H13" s="11"/>
+      <c r="H13" s="11" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="14" ht="14.25" spans="2:8">
       <c r="B14" s="4">
         <v>8</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="D14" s="4">
         <v>8</v>
@@ -5460,85 +5511,99 @@
       <c r="G14" s="4">
         <v>8</v>
       </c>
-      <c r="H14" s="4"/>
+      <c r="H14" s="4" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="15" ht="14.25" spans="2:8">
       <c r="B15" s="4">
         <v>9</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="5"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="H15" s="3" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="16" ht="14.25" spans="2:8">
       <c r="B16" s="4">
         <v>10</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
       <c r="F16" s="14"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+      <c r="H16" s="3" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="17" ht="14.25" spans="2:8">
       <c r="B17" s="4">
         <v>11</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
       <c r="F17" s="14"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="H17" s="3" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="18" ht="14.25" spans="2:8">
       <c r="B18" s="4">
         <v>12</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
       <c r="F18" s="14"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="H18" s="3" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="19" ht="14.25" spans="2:8">
       <c r="B19" s="4">
         <v>13</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
       <c r="F19" s="14"/>
       <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
+      <c r="H19" s="13" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="20" ht="14.25" spans="2:8">
       <c r="B20" s="3">
         <v>14</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
+      <c r="H20" s="15" t="s">
+        <v>280</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5569,16 +5634,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -5630,16 +5695,16 @@
         <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="2:5">

--- a/LubanTools/DesignerConfigs/Datas/物品配置表.xlsx
+++ b/LubanTools/DesignerConfigs/Datas/物品配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21555" windowHeight="11670" activeTab="2"/>
+    <workbookView windowWidth="21555" windowHeight="11670" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="物品表" sheetId="1" r:id="rId1"/>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="300">
   <si>
     <t>##var</t>
   </si>
@@ -767,6 +767,9 @@
     <t>title</t>
   </si>
   <si>
+    <t>color</t>
+  </si>
+  <si>
     <t>float</t>
   </si>
   <si>
@@ -782,58 +785,88 @@
     <t>品质icon</t>
   </si>
   <si>
+    <t>颜色</t>
+  </si>
+  <si>
     <t>普通的</t>
   </si>
   <si>
     <t>quality_1</t>
   </si>
   <si>
+    <t>#EDEDED</t>
+  </si>
+  <si>
     <t>稀有的</t>
   </si>
   <si>
     <t>quality_2</t>
   </si>
   <si>
+    <t>#84FC5A</t>
+  </si>
+  <si>
     <t>名贵的</t>
   </si>
   <si>
     <t>quality_3</t>
   </si>
   <si>
+    <t>#4297FF</t>
+  </si>
+  <si>
     <t>史诗的</t>
   </si>
   <si>
     <t>quality_4</t>
   </si>
   <si>
+    <t>#CF68FF</t>
+  </si>
+  <si>
     <t>传说的</t>
   </si>
   <si>
     <t>quality_5</t>
   </si>
   <si>
+    <t>#FFE868</t>
+  </si>
+  <si>
     <t>珍稀的</t>
   </si>
   <si>
     <t>quality_6</t>
   </si>
   <si>
+    <t>#FF874E</t>
+  </si>
+  <si>
     <t>极品的</t>
   </si>
   <si>
     <t>quality_7</t>
   </si>
   <si>
+    <t>#FF2E2E</t>
+  </si>
+  <si>
     <t>神话的</t>
   </si>
   <si>
     <t>quality_8</t>
   </si>
   <si>
+    <t>#32FFE0</t>
+  </si>
+  <si>
     <t>超自然</t>
   </si>
   <si>
     <t>quality_9</t>
+  </si>
+  <si>
+    <t>#76422E</t>
   </si>
   <si>
     <t>text</t>
@@ -1186,13 +1219,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
+      <sz val="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1469,8 +1502,12 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1480,12 +1517,8 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1786,7 +1819,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1834,13 +1867,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1861,7 +1897,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1870,10 +1906,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2366,1718 +2402,1718 @@
       </c>
     </row>
     <row r="7" ht="14.25" spans="2:9">
-      <c r="B7" s="17">
+      <c r="B7" s="18">
         <v>101001</v>
       </c>
-      <c r="C7" s="17">
-        <v>1</v>
-      </c>
-      <c r="D7" s="18" t="s">
+      <c r="C7" s="18">
+        <v>1</v>
+      </c>
+      <c r="D7" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="20">
-        <v>1</v>
-      </c>
-      <c r="G7" s="20">
+      <c r="F7" s="21">
+        <v>1</v>
+      </c>
+      <c r="G7" s="21">
         <v>-1</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="21">
         <v>-1</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="21">
         <v>-1</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="2:9">
-      <c r="B8" s="21">
+      <c r="B8" s="22">
         <v>101002</v>
       </c>
-      <c r="C8" s="21">
-        <v>1</v>
-      </c>
-      <c r="D8" s="18" t="s">
+      <c r="C8" s="22">
+        <v>1</v>
+      </c>
+      <c r="D8" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="20">
-        <v>1</v>
-      </c>
-      <c r="G8" s="20">
+      <c r="F8" s="21">
+        <v>1</v>
+      </c>
+      <c r="G8" s="21">
         <v>2</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="21">
         <v>-1</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="2:9">
-      <c r="B9" s="21">
+      <c r="B9" s="22">
         <v>101003</v>
       </c>
-      <c r="C9" s="21">
-        <v>1</v>
-      </c>
-      <c r="D9" s="18" t="s">
+      <c r="C9" s="22">
+        <v>1</v>
+      </c>
+      <c r="D9" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="20">
-        <v>1</v>
-      </c>
-      <c r="G9" s="20">
+      <c r="F9" s="21">
+        <v>1</v>
+      </c>
+      <c r="G9" s="21">
         <v>-1</v>
       </c>
-      <c r="H9" s="20">
-        <v>1</v>
-      </c>
-      <c r="I9" s="20">
+      <c r="H9" s="21">
+        <v>1</v>
+      </c>
+      <c r="I9" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="2:9">
-      <c r="B10" s="21">
+      <c r="B10" s="22">
         <v>101004</v>
       </c>
-      <c r="C10" s="21">
-        <v>1</v>
-      </c>
-      <c r="D10" s="18" t="s">
+      <c r="C10" s="22">
+        <v>1</v>
+      </c>
+      <c r="D10" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="21">
         <v>-1</v>
       </c>
-      <c r="G10" s="20">
-        <v>1</v>
-      </c>
-      <c r="H10" s="20">
+      <c r="G10" s="21">
+        <v>1</v>
+      </c>
+      <c r="H10" s="21">
         <v>2</v>
       </c>
-      <c r="I10" s="20">
+      <c r="I10" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="2:9">
-      <c r="B11" s="21">
+      <c r="B11" s="22">
         <v>101005</v>
       </c>
-      <c r="C11" s="21">
-        <v>1</v>
-      </c>
-      <c r="D11" s="18" t="s">
+      <c r="C11" s="22">
+        <v>1</v>
+      </c>
+      <c r="D11" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="21">
         <v>3</v>
       </c>
-      <c r="G11" s="20">
+      <c r="G11" s="21">
         <v>-1</v>
       </c>
-      <c r="H11" s="20">
-        <v>1</v>
-      </c>
-      <c r="I11" s="20">
+      <c r="H11" s="21">
+        <v>1</v>
+      </c>
+      <c r="I11" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="2:9">
-      <c r="B12" s="21">
+      <c r="B12" s="22">
         <v>101006</v>
       </c>
-      <c r="C12" s="21">
-        <v>1</v>
-      </c>
-      <c r="D12" s="18" t="s">
+      <c r="C12" s="22">
+        <v>1</v>
+      </c>
+      <c r="D12" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="20">
-        <v>1</v>
-      </c>
-      <c r="G12" s="20">
-        <v>1</v>
-      </c>
-      <c r="H12" s="20">
+      <c r="F12" s="21">
+        <v>1</v>
+      </c>
+      <c r="G12" s="21">
+        <v>1</v>
+      </c>
+      <c r="H12" s="21">
         <v>3</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I12" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="2:9">
-      <c r="B13" s="21">
+      <c r="B13" s="22">
         <v>101007</v>
       </c>
-      <c r="C13" s="21">
-        <v>1</v>
-      </c>
-      <c r="D13" s="18" t="s">
+      <c r="C13" s="22">
+        <v>1</v>
+      </c>
+      <c r="D13" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="21">
         <v>2</v>
       </c>
-      <c r="G13" s="20">
-        <v>1</v>
-      </c>
-      <c r="H13" s="20">
-        <v>1</v>
-      </c>
-      <c r="I13" s="20">
+      <c r="G13" s="21">
+        <v>1</v>
+      </c>
+      <c r="H13" s="21">
+        <v>1</v>
+      </c>
+      <c r="I13" s="21">
         <v>2</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="2:9">
-      <c r="B14" s="21">
+      <c r="B14" s="22">
         <v>101008</v>
       </c>
-      <c r="C14" s="21">
-        <v>1</v>
-      </c>
-      <c r="D14" s="22" t="s">
+      <c r="C14" s="22">
+        <v>1</v>
+      </c>
+      <c r="D14" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="20">
-        <v>1</v>
-      </c>
-      <c r="G14" s="20">
+      <c r="F14" s="21">
+        <v>1</v>
+      </c>
+      <c r="G14" s="21">
         <v>2</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="21">
         <v>2</v>
       </c>
-      <c r="I14" s="20">
+      <c r="I14" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="15" ht="14.25" spans="2:9">
-      <c r="B15" s="21">
+      <c r="B15" s="22">
         <v>101009</v>
       </c>
-      <c r="C15" s="21">
-        <v>1</v>
-      </c>
-      <c r="D15" s="18" t="s">
+      <c r="C15" s="22">
+        <v>1</v>
+      </c>
+      <c r="D15" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="20">
-        <v>1</v>
-      </c>
-      <c r="G15" s="20">
-        <v>1</v>
-      </c>
-      <c r="H15" s="20">
+      <c r="F15" s="21">
+        <v>1</v>
+      </c>
+      <c r="G15" s="21">
+        <v>1</v>
+      </c>
+      <c r="H15" s="21">
         <v>3</v>
       </c>
-      <c r="I15" s="20">
+      <c r="I15" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="16" ht="15" spans="2:9">
-      <c r="B16" s="21">
+      <c r="B16" s="22">
         <v>101010</v>
       </c>
-      <c r="C16" s="21">
-        <v>1</v>
-      </c>
-      <c r="D16" s="22" t="s">
+      <c r="C16" s="22">
+        <v>1</v>
+      </c>
+      <c r="D16" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="24">
         <v>2</v>
       </c>
-      <c r="G16" s="23">
-        <v>1</v>
-      </c>
-      <c r="H16" s="23">
+      <c r="G16" s="24">
+        <v>1</v>
+      </c>
+      <c r="H16" s="24">
         <v>3</v>
       </c>
-      <c r="I16" s="23">
+      <c r="I16" s="24">
         <v>2</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="2:9">
-      <c r="B17" s="21">
+      <c r="B17" s="22">
         <v>102001</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="22">
         <v>2</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="24">
-        <v>1</v>
-      </c>
-      <c r="G17" s="24">
-        <v>1</v>
-      </c>
-      <c r="H17" s="24">
-        <v>1</v>
-      </c>
-      <c r="I17" s="24">
+      <c r="F17" s="25">
+        <v>1</v>
+      </c>
+      <c r="G17" s="25">
+        <v>1</v>
+      </c>
+      <c r="H17" s="25">
+        <v>1</v>
+      </c>
+      <c r="I17" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="2:9">
-      <c r="B18" s="21">
+      <c r="B18" s="22">
         <v>102002</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="22">
         <v>2</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="20">
-        <v>1</v>
-      </c>
-      <c r="G18" s="20">
-        <v>1</v>
-      </c>
-      <c r="H18" s="20">
-        <v>1</v>
-      </c>
-      <c r="I18" s="20">
+      <c r="F18" s="21">
+        <v>1</v>
+      </c>
+      <c r="G18" s="21">
+        <v>1</v>
+      </c>
+      <c r="H18" s="21">
+        <v>1</v>
+      </c>
+      <c r="I18" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="2:9">
-      <c r="B19" s="21">
+      <c r="B19" s="22">
         <v>102003</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="22">
         <v>2</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="20">
-        <v>1</v>
-      </c>
-      <c r="G19" s="20">
-        <v>1</v>
-      </c>
-      <c r="H19" s="20">
-        <v>1</v>
-      </c>
-      <c r="I19" s="20">
+      <c r="F19" s="21">
+        <v>1</v>
+      </c>
+      <c r="G19" s="21">
+        <v>1</v>
+      </c>
+      <c r="H19" s="21">
+        <v>1</v>
+      </c>
+      <c r="I19" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="2:9">
-      <c r="B20" s="21">
+      <c r="B20" s="22">
         <v>102004</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="22">
         <v>2</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="20">
-        <v>1</v>
-      </c>
-      <c r="G20" s="20">
-        <v>1</v>
-      </c>
-      <c r="H20" s="20">
-        <v>1</v>
-      </c>
-      <c r="I20" s="20">
+      <c r="F20" s="21">
+        <v>1</v>
+      </c>
+      <c r="G20" s="21">
+        <v>1</v>
+      </c>
+      <c r="H20" s="21">
+        <v>1</v>
+      </c>
+      <c r="I20" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="2:9">
-      <c r="B21" s="21">
+      <c r="B21" s="22">
         <v>102005</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="22">
         <v>2</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="F21" s="20">
-        <v>1</v>
-      </c>
-      <c r="G21" s="20">
-        <v>1</v>
-      </c>
-      <c r="H21" s="20">
-        <v>1</v>
-      </c>
-      <c r="I21" s="20">
+      <c r="F21" s="21">
+        <v>1</v>
+      </c>
+      <c r="G21" s="21">
+        <v>1</v>
+      </c>
+      <c r="H21" s="21">
+        <v>1</v>
+      </c>
+      <c r="I21" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="2:9">
-      <c r="B22" s="21">
+      <c r="B22" s="22">
         <v>102006</v>
       </c>
-      <c r="C22" s="21">
+      <c r="C22" s="22">
         <v>2</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F22" s="20">
-        <v>1</v>
-      </c>
-      <c r="G22" s="20">
-        <v>1</v>
-      </c>
-      <c r="H22" s="20">
-        <v>1</v>
-      </c>
-      <c r="I22" s="20">
+      <c r="F22" s="21">
+        <v>1</v>
+      </c>
+      <c r="G22" s="21">
+        <v>1</v>
+      </c>
+      <c r="H22" s="21">
+        <v>1</v>
+      </c>
+      <c r="I22" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="23" ht="14.25" spans="2:9">
-      <c r="B23" s="21">
+      <c r="B23" s="22">
         <v>102007</v>
       </c>
-      <c r="C23" s="21">
+      <c r="C23" s="22">
         <v>2</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="F23" s="20">
-        <v>1</v>
-      </c>
-      <c r="G23" s="20">
-        <v>1</v>
-      </c>
-      <c r="H23" s="20">
-        <v>1</v>
-      </c>
-      <c r="I23" s="20">
+      <c r="F23" s="21">
+        <v>1</v>
+      </c>
+      <c r="G23" s="21">
+        <v>1</v>
+      </c>
+      <c r="H23" s="21">
+        <v>1</v>
+      </c>
+      <c r="I23" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="24" ht="14.25" spans="2:9">
-      <c r="B24" s="21">
+      <c r="B24" s="22">
         <v>102008</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="22">
         <v>2</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="F24" s="20">
-        <v>1</v>
-      </c>
-      <c r="G24" s="20">
-        <v>1</v>
-      </c>
-      <c r="H24" s="20">
-        <v>1</v>
-      </c>
-      <c r="I24" s="20">
+      <c r="F24" s="21">
+        <v>1</v>
+      </c>
+      <c r="G24" s="21">
+        <v>1</v>
+      </c>
+      <c r="H24" s="21">
+        <v>1</v>
+      </c>
+      <c r="I24" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="25" ht="14.25" spans="2:9">
-      <c r="B25" s="21">
+      <c r="B25" s="22">
         <v>102009</v>
       </c>
-      <c r="C25" s="21">
+      <c r="C25" s="22">
         <v>2</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="E25" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="F25" s="20">
-        <v>1</v>
-      </c>
-      <c r="G25" s="20">
-        <v>1</v>
-      </c>
-      <c r="H25" s="20">
-        <v>1</v>
-      </c>
-      <c r="I25" s="20">
+      <c r="F25" s="21">
+        <v>1</v>
+      </c>
+      <c r="G25" s="21">
+        <v>1</v>
+      </c>
+      <c r="H25" s="21">
+        <v>1</v>
+      </c>
+      <c r="I25" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="26" ht="15" spans="2:9">
-      <c r="B26" s="21">
+      <c r="B26" s="22">
         <v>102010</v>
       </c>
-      <c r="C26" s="21">
+      <c r="C26" s="22">
         <v>2</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="E26" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="F26" s="23">
-        <v>1</v>
-      </c>
-      <c r="G26" s="23">
-        <v>1</v>
-      </c>
-      <c r="H26" s="23">
-        <v>1</v>
-      </c>
-      <c r="I26" s="23">
+      <c r="F26" s="24">
+        <v>1</v>
+      </c>
+      <c r="G26" s="24">
+        <v>1</v>
+      </c>
+      <c r="H26" s="24">
+        <v>1</v>
+      </c>
+      <c r="I26" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="27" ht="14.25" spans="2:9">
-      <c r="B27" s="21">
+      <c r="B27" s="22">
         <v>103001</v>
       </c>
-      <c r="C27" s="25">
+      <c r="C27" s="26">
         <v>3</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="F27" s="24">
-        <v>1</v>
-      </c>
-      <c r="G27" s="24">
-        <v>1</v>
-      </c>
-      <c r="H27" s="24">
-        <v>1</v>
-      </c>
-      <c r="I27" s="24">
+      <c r="F27" s="25">
+        <v>1</v>
+      </c>
+      <c r="G27" s="25">
+        <v>1</v>
+      </c>
+      <c r="H27" s="25">
+        <v>1</v>
+      </c>
+      <c r="I27" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="2:9">
-      <c r="B28" s="21">
+      <c r="B28" s="22">
         <v>103002</v>
       </c>
-      <c r="C28" s="25">
+      <c r="C28" s="26">
         <v>3</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="D28" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="E28" s="19" t="s">
+      <c r="E28" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="F28" s="20">
-        <v>1</v>
-      </c>
-      <c r="G28" s="20">
-        <v>1</v>
-      </c>
-      <c r="H28" s="20">
-        <v>1</v>
-      </c>
-      <c r="I28" s="20">
+      <c r="F28" s="21">
+        <v>1</v>
+      </c>
+      <c r="G28" s="21">
+        <v>1</v>
+      </c>
+      <c r="H28" s="21">
+        <v>1</v>
+      </c>
+      <c r="I28" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="2:9">
-      <c r="B29" s="21">
+      <c r="B29" s="22">
         <v>103003</v>
       </c>
-      <c r="C29" s="25">
+      <c r="C29" s="26">
         <v>3</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D29" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E29" s="19" t="s">
+      <c r="E29" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="F29" s="20">
-        <v>1</v>
-      </c>
-      <c r="G29" s="20">
-        <v>1</v>
-      </c>
-      <c r="H29" s="20">
-        <v>1</v>
-      </c>
-      <c r="I29" s="20">
+      <c r="F29" s="21">
+        <v>1</v>
+      </c>
+      <c r="G29" s="21">
+        <v>1</v>
+      </c>
+      <c r="H29" s="21">
+        <v>1</v>
+      </c>
+      <c r="I29" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="30" ht="14.25" spans="2:9">
-      <c r="B30" s="21">
+      <c r="B30" s="22">
         <v>103004</v>
       </c>
-      <c r="C30" s="25">
+      <c r="C30" s="26">
         <v>3</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="E30" s="19" t="s">
+      <c r="E30" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="F30" s="20">
-        <v>1</v>
-      </c>
-      <c r="G30" s="20">
-        <v>1</v>
-      </c>
-      <c r="H30" s="20">
-        <v>1</v>
-      </c>
-      <c r="I30" s="20">
+      <c r="F30" s="21">
+        <v>1</v>
+      </c>
+      <c r="G30" s="21">
+        <v>1</v>
+      </c>
+      <c r="H30" s="21">
+        <v>1</v>
+      </c>
+      <c r="I30" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="31" ht="14.25" spans="2:9">
-      <c r="B31" s="21">
+      <c r="B31" s="22">
         <v>103005</v>
       </c>
-      <c r="C31" s="25">
+      <c r="C31" s="26">
         <v>3</v>
       </c>
-      <c r="D31" s="22" t="s">
+      <c r="D31" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="E31" s="19" t="s">
+      <c r="E31" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="F31" s="20">
-        <v>1</v>
-      </c>
-      <c r="G31" s="20">
-        <v>1</v>
-      </c>
-      <c r="H31" s="20">
-        <v>1</v>
-      </c>
-      <c r="I31" s="20">
+      <c r="F31" s="21">
+        <v>1</v>
+      </c>
+      <c r="G31" s="21">
+        <v>1</v>
+      </c>
+      <c r="H31" s="21">
+        <v>1</v>
+      </c>
+      <c r="I31" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="32" ht="14.25" spans="2:9">
-      <c r="B32" s="21">
+      <c r="B32" s="22">
         <v>103006</v>
       </c>
-      <c r="C32" s="25">
+      <c r="C32" s="26">
         <v>3</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="D32" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="E32" s="19" t="s">
+      <c r="E32" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="F32" s="20">
-        <v>1</v>
-      </c>
-      <c r="G32" s="20">
-        <v>1</v>
-      </c>
-      <c r="H32" s="20">
-        <v>1</v>
-      </c>
-      <c r="I32" s="20">
+      <c r="F32" s="21">
+        <v>1</v>
+      </c>
+      <c r="G32" s="21">
+        <v>1</v>
+      </c>
+      <c r="H32" s="21">
+        <v>1</v>
+      </c>
+      <c r="I32" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="33" ht="14.25" spans="2:9">
-      <c r="B33" s="21">
+      <c r="B33" s="22">
         <v>103007</v>
       </c>
-      <c r="C33" s="25">
+      <c r="C33" s="26">
         <v>3</v>
       </c>
-      <c r="D33" s="18" t="s">
+      <c r="D33" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="E33" s="19" t="s">
+      <c r="E33" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="F33" s="20">
-        <v>1</v>
-      </c>
-      <c r="G33" s="20">
-        <v>1</v>
-      </c>
-      <c r="H33" s="20">
-        <v>1</v>
-      </c>
-      <c r="I33" s="20">
+      <c r="F33" s="21">
+        <v>1</v>
+      </c>
+      <c r="G33" s="21">
+        <v>1</v>
+      </c>
+      <c r="H33" s="21">
+        <v>1</v>
+      </c>
+      <c r="I33" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="34" ht="14.25" spans="2:9">
-      <c r="B34" s="21">
+      <c r="B34" s="22">
         <v>103008</v>
       </c>
-      <c r="C34" s="25">
+      <c r="C34" s="26">
         <v>3</v>
       </c>
-      <c r="D34" s="18" t="s">
+      <c r="D34" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="E34" s="19" t="s">
+      <c r="E34" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="F34" s="20">
-        <v>1</v>
-      </c>
-      <c r="G34" s="20">
-        <v>1</v>
-      </c>
-      <c r="H34" s="20">
-        <v>1</v>
-      </c>
-      <c r="I34" s="20">
+      <c r="F34" s="21">
+        <v>1</v>
+      </c>
+      <c r="G34" s="21">
+        <v>1</v>
+      </c>
+      <c r="H34" s="21">
+        <v>1</v>
+      </c>
+      <c r="I34" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="35" ht="14.25" spans="2:9">
-      <c r="B35" s="21">
+      <c r="B35" s="22">
         <v>103009</v>
       </c>
-      <c r="C35" s="25">
+      <c r="C35" s="26">
         <v>3</v>
       </c>
-      <c r="D35" s="18" t="s">
+      <c r="D35" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="E35" s="19" t="s">
+      <c r="E35" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="F35" s="20">
-        <v>1</v>
-      </c>
-      <c r="G35" s="20">
-        <v>1</v>
-      </c>
-      <c r="H35" s="20">
-        <v>1</v>
-      </c>
-      <c r="I35" s="20">
+      <c r="F35" s="21">
+        <v>1</v>
+      </c>
+      <c r="G35" s="21">
+        <v>1</v>
+      </c>
+      <c r="H35" s="21">
+        <v>1</v>
+      </c>
+      <c r="I35" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="36" ht="15" spans="2:9">
-      <c r="B36" s="21">
+      <c r="B36" s="22">
         <v>103010</v>
       </c>
-      <c r="C36" s="25">
+      <c r="C36" s="26">
         <v>3</v>
       </c>
-      <c r="D36" s="22" t="s">
+      <c r="D36" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="E36" s="19" t="s">
+      <c r="E36" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="F36" s="23">
-        <v>1</v>
-      </c>
-      <c r="G36" s="23">
-        <v>1</v>
-      </c>
-      <c r="H36" s="23">
-        <v>1</v>
-      </c>
-      <c r="I36" s="23">
+      <c r="F36" s="24">
+        <v>1</v>
+      </c>
+      <c r="G36" s="24">
+        <v>1</v>
+      </c>
+      <c r="H36" s="24">
+        <v>1</v>
+      </c>
+      <c r="I36" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="37" ht="14.25" spans="2:9">
-      <c r="B37" s="25">
+      <c r="B37" s="26">
         <v>104001</v>
       </c>
-      <c r="C37" s="26">
+      <c r="C37" s="27">
         <v>4</v>
       </c>
-      <c r="D37" s="22" t="s">
+      <c r="D37" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="E37" s="19" t="s">
+      <c r="E37" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="F37" s="24">
-        <v>1</v>
-      </c>
-      <c r="G37" s="24">
-        <v>1</v>
-      </c>
-      <c r="H37" s="24">
-        <v>1</v>
-      </c>
-      <c r="I37" s="24">
+      <c r="F37" s="25">
+        <v>1</v>
+      </c>
+      <c r="G37" s="25">
+        <v>1</v>
+      </c>
+      <c r="H37" s="25">
+        <v>1</v>
+      </c>
+      <c r="I37" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="38" ht="14.25" spans="2:9">
-      <c r="B38" s="25">
+      <c r="B38" s="26">
         <v>104002</v>
       </c>
-      <c r="C38" s="26">
+      <c r="C38" s="27">
         <v>4</v>
       </c>
-      <c r="D38" s="22" t="s">
+      <c r="D38" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="E38" s="19" t="s">
+      <c r="E38" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="F38" s="20">
-        <v>1</v>
-      </c>
-      <c r="G38" s="20">
-        <v>1</v>
-      </c>
-      <c r="H38" s="20">
-        <v>1</v>
-      </c>
-      <c r="I38" s="20">
+      <c r="F38" s="21">
+        <v>1</v>
+      </c>
+      <c r="G38" s="21">
+        <v>1</v>
+      </c>
+      <c r="H38" s="21">
+        <v>1</v>
+      </c>
+      <c r="I38" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="39" ht="14.25" spans="2:9">
-      <c r="B39" s="25">
+      <c r="B39" s="26">
         <v>104003</v>
       </c>
-      <c r="C39" s="26">
+      <c r="C39" s="27">
         <v>4</v>
       </c>
-      <c r="D39" s="22" t="s">
+      <c r="D39" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="E39" s="19" t="s">
+      <c r="E39" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="F39" s="20">
-        <v>1</v>
-      </c>
-      <c r="G39" s="20">
-        <v>1</v>
-      </c>
-      <c r="H39" s="20">
-        <v>1</v>
-      </c>
-      <c r="I39" s="20">
+      <c r="F39" s="21">
+        <v>1</v>
+      </c>
+      <c r="G39" s="21">
+        <v>1</v>
+      </c>
+      <c r="H39" s="21">
+        <v>1</v>
+      </c>
+      <c r="I39" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="40" ht="14.25" spans="2:9">
-      <c r="B40" s="25">
+      <c r="B40" s="26">
         <v>104004</v>
       </c>
-      <c r="C40" s="26">
+      <c r="C40" s="27">
         <v>4</v>
       </c>
-      <c r="D40" s="22" t="s">
+      <c r="D40" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="E40" s="19" t="s">
+      <c r="E40" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="F40" s="20">
-        <v>1</v>
-      </c>
-      <c r="G40" s="20">
-        <v>1</v>
-      </c>
-      <c r="H40" s="20">
-        <v>1</v>
-      </c>
-      <c r="I40" s="20">
+      <c r="F40" s="21">
+        <v>1</v>
+      </c>
+      <c r="G40" s="21">
+        <v>1</v>
+      </c>
+      <c r="H40" s="21">
+        <v>1</v>
+      </c>
+      <c r="I40" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="2:9">
-      <c r="B41" s="21">
+      <c r="B41" s="22">
         <v>104005</v>
       </c>
-      <c r="C41" s="27">
+      <c r="C41" s="28">
         <v>4</v>
       </c>
-      <c r="D41" s="22" t="s">
+      <c r="D41" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="E41" s="19" t="s">
+      <c r="E41" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="F41" s="20">
-        <v>1</v>
-      </c>
-      <c r="G41" s="20">
-        <v>1</v>
-      </c>
-      <c r="H41" s="20">
-        <v>1</v>
-      </c>
-      <c r="I41" s="20">
+      <c r="F41" s="21">
+        <v>1</v>
+      </c>
+      <c r="G41" s="21">
+        <v>1</v>
+      </c>
+      <c r="H41" s="21">
+        <v>1</v>
+      </c>
+      <c r="I41" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="42" ht="14.25" spans="2:9">
-      <c r="B42" s="21">
+      <c r="B42" s="22">
         <v>104006</v>
       </c>
-      <c r="C42" s="25">
+      <c r="C42" s="26">
         <v>4</v>
       </c>
-      <c r="D42" s="22" t="s">
+      <c r="D42" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="E42" s="19" t="s">
+      <c r="E42" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="F42" s="20">
-        <v>1</v>
-      </c>
-      <c r="G42" s="20">
-        <v>1</v>
-      </c>
-      <c r="H42" s="20">
-        <v>1</v>
-      </c>
-      <c r="I42" s="20">
+      <c r="F42" s="21">
+        <v>1</v>
+      </c>
+      <c r="G42" s="21">
+        <v>1</v>
+      </c>
+      <c r="H42" s="21">
+        <v>1</v>
+      </c>
+      <c r="I42" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="43" ht="14.25" spans="2:9">
-      <c r="B43" s="21">
+      <c r="B43" s="22">
         <v>104007</v>
       </c>
-      <c r="C43" s="25">
+      <c r="C43" s="26">
         <v>4</v>
       </c>
-      <c r="D43" s="28" t="s">
+      <c r="D43" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="E43" s="19" t="s">
+      <c r="E43" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="F43" s="20">
-        <v>1</v>
-      </c>
-      <c r="G43" s="20">
-        <v>1</v>
-      </c>
-      <c r="H43" s="20">
-        <v>1</v>
-      </c>
-      <c r="I43" s="20">
+      <c r="F43" s="21">
+        <v>1</v>
+      </c>
+      <c r="G43" s="21">
+        <v>1</v>
+      </c>
+      <c r="H43" s="21">
+        <v>1</v>
+      </c>
+      <c r="I43" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="44" ht="14.25" spans="2:9">
-      <c r="B44" s="21">
+      <c r="B44" s="22">
         <v>104008</v>
       </c>
-      <c r="C44" s="25">
+      <c r="C44" s="26">
         <v>4</v>
       </c>
-      <c r="D44" s="28" t="s">
+      <c r="D44" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="E44" s="19" t="s">
+      <c r="E44" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="F44" s="20">
-        <v>1</v>
-      </c>
-      <c r="G44" s="20">
-        <v>1</v>
-      </c>
-      <c r="H44" s="20">
-        <v>1</v>
-      </c>
-      <c r="I44" s="20">
+      <c r="F44" s="21">
+        <v>1</v>
+      </c>
+      <c r="G44" s="21">
+        <v>1</v>
+      </c>
+      <c r="H44" s="21">
+        <v>1</v>
+      </c>
+      <c r="I44" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="45" ht="14.25" spans="2:9">
-      <c r="B45" s="21">
+      <c r="B45" s="22">
         <v>104009</v>
       </c>
-      <c r="C45" s="21">
+      <c r="C45" s="22">
         <v>4</v>
       </c>
-      <c r="D45" s="22" t="s">
+      <c r="D45" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="E45" s="19" t="s">
+      <c r="E45" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="F45" s="20">
-        <v>1</v>
-      </c>
-      <c r="G45" s="20">
-        <v>1</v>
-      </c>
-      <c r="H45" s="20">
-        <v>1</v>
-      </c>
-      <c r="I45" s="20">
+      <c r="F45" s="21">
+        <v>1</v>
+      </c>
+      <c r="G45" s="21">
+        <v>1</v>
+      </c>
+      <c r="H45" s="21">
+        <v>1</v>
+      </c>
+      <c r="I45" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="46" ht="15" spans="2:9">
-      <c r="B46" s="21">
+      <c r="B46" s="22">
         <v>104010</v>
       </c>
-      <c r="C46" s="21">
+      <c r="C46" s="22">
         <v>4</v>
       </c>
-      <c r="D46" s="22" t="s">
+      <c r="D46" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="E46" s="19" t="s">
+      <c r="E46" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="F46" s="23">
-        <v>1</v>
-      </c>
-      <c r="G46" s="23">
-        <v>1</v>
-      </c>
-      <c r="H46" s="23">
-        <v>1</v>
-      </c>
-      <c r="I46" s="23">
+      <c r="F46" s="24">
+        <v>1</v>
+      </c>
+      <c r="G46" s="24">
+        <v>1</v>
+      </c>
+      <c r="H46" s="24">
+        <v>1</v>
+      </c>
+      <c r="I46" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="47" ht="14.25" spans="2:9">
-      <c r="B47" s="21">
+      <c r="B47" s="22">
         <v>105001</v>
       </c>
-      <c r="C47" s="21">
+      <c r="C47" s="22">
         <v>5</v>
       </c>
-      <c r="D47" s="22" t="s">
+      <c r="D47" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="E47" s="19" t="s">
+      <c r="E47" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="F47" s="24">
-        <v>1</v>
-      </c>
-      <c r="G47" s="24">
-        <v>1</v>
-      </c>
-      <c r="H47" s="24">
-        <v>1</v>
-      </c>
-      <c r="I47" s="24">
+      <c r="F47" s="25">
+        <v>1</v>
+      </c>
+      <c r="G47" s="25">
+        <v>1</v>
+      </c>
+      <c r="H47" s="25">
+        <v>1</v>
+      </c>
+      <c r="I47" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="48" ht="14.25" spans="2:9">
-      <c r="B48" s="26">
+      <c r="B48" s="27">
         <v>105002</v>
       </c>
-      <c r="C48" s="26">
+      <c r="C48" s="27">
         <v>5</v>
       </c>
-      <c r="D48" s="22" t="s">
+      <c r="D48" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="E48" s="19" t="s">
+      <c r="E48" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="F48" s="20">
-        <v>1</v>
-      </c>
-      <c r="G48" s="20">
-        <v>1</v>
-      </c>
-      <c r="H48" s="20">
-        <v>1</v>
-      </c>
-      <c r="I48" s="20">
+      <c r="F48" s="21">
+        <v>1</v>
+      </c>
+      <c r="G48" s="21">
+        <v>1</v>
+      </c>
+      <c r="H48" s="21">
+        <v>1</v>
+      </c>
+      <c r="I48" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="49" ht="14.25" spans="2:9">
-      <c r="B49" s="26">
+      <c r="B49" s="27">
         <v>105003</v>
       </c>
-      <c r="C49" s="26">
+      <c r="C49" s="27">
         <v>5</v>
       </c>
-      <c r="D49" s="18" t="s">
+      <c r="D49" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="E49" s="19" t="s">
+      <c r="E49" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="F49" s="20">
-        <v>1</v>
-      </c>
-      <c r="G49" s="20">
-        <v>1</v>
-      </c>
-      <c r="H49" s="20">
-        <v>1</v>
-      </c>
-      <c r="I49" s="20">
+      <c r="F49" s="21">
+        <v>1</v>
+      </c>
+      <c r="G49" s="21">
+        <v>1</v>
+      </c>
+      <c r="H49" s="21">
+        <v>1</v>
+      </c>
+      <c r="I49" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="50" ht="14.25" spans="2:9">
-      <c r="B50" s="17">
+      <c r="B50" s="18">
         <v>105004</v>
       </c>
-      <c r="C50" s="17">
+      <c r="C50" s="18">
         <v>5</v>
       </c>
-      <c r="D50" s="18" t="s">
+      <c r="D50" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="E50" s="19" t="s">
+      <c r="E50" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="F50" s="20">
-        <v>1</v>
-      </c>
-      <c r="G50" s="20">
-        <v>1</v>
-      </c>
-      <c r="H50" s="20">
-        <v>1</v>
-      </c>
-      <c r="I50" s="20">
+      <c r="F50" s="21">
+        <v>1</v>
+      </c>
+      <c r="G50" s="21">
+        <v>1</v>
+      </c>
+      <c r="H50" s="21">
+        <v>1</v>
+      </c>
+      <c r="I50" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="51" ht="14.25" spans="2:9">
-      <c r="B51" s="21">
+      <c r="B51" s="22">
         <v>105005</v>
       </c>
-      <c r="C51" s="21">
+      <c r="C51" s="22">
         <v>5</v>
       </c>
-      <c r="D51" s="22" t="s">
+      <c r="D51" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="E51" s="19" t="s">
+      <c r="E51" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="F51" s="20">
-        <v>1</v>
-      </c>
-      <c r="G51" s="20">
-        <v>1</v>
-      </c>
-      <c r="H51" s="20">
-        <v>1</v>
-      </c>
-      <c r="I51" s="20">
+      <c r="F51" s="21">
+        <v>1</v>
+      </c>
+      <c r="G51" s="21">
+        <v>1</v>
+      </c>
+      <c r="H51" s="21">
+        <v>1</v>
+      </c>
+      <c r="I51" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="52" ht="14.25" spans="2:9">
-      <c r="B52" s="21">
+      <c r="B52" s="22">
         <v>105006</v>
       </c>
-      <c r="C52" s="21">
+      <c r="C52" s="22">
         <v>5</v>
       </c>
-      <c r="D52" s="22" t="s">
+      <c r="D52" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="E52" s="19" t="s">
+      <c r="E52" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="F52" s="20">
-        <v>1</v>
-      </c>
-      <c r="G52" s="20">
-        <v>1</v>
-      </c>
-      <c r="H52" s="20">
-        <v>1</v>
-      </c>
-      <c r="I52" s="20">
+      <c r="F52" s="21">
+        <v>1</v>
+      </c>
+      <c r="G52" s="21">
+        <v>1</v>
+      </c>
+      <c r="H52" s="21">
+        <v>1</v>
+      </c>
+      <c r="I52" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="53" ht="14.25" spans="2:9">
-      <c r="B53" s="19">
+      <c r="B53" s="20">
         <v>105007</v>
       </c>
-      <c r="C53" s="19">
+      <c r="C53" s="20">
         <v>5</v>
       </c>
-      <c r="D53" s="22" t="s">
+      <c r="D53" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="E53" s="19" t="s">
+      <c r="E53" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="F53" s="20">
-        <v>1</v>
-      </c>
-      <c r="G53" s="20">
-        <v>1</v>
-      </c>
-      <c r="H53" s="20">
-        <v>1</v>
-      </c>
-      <c r="I53" s="20">
+      <c r="F53" s="21">
+        <v>1</v>
+      </c>
+      <c r="G53" s="21">
+        <v>1</v>
+      </c>
+      <c r="H53" s="21">
+        <v>1</v>
+      </c>
+      <c r="I53" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="54" ht="14.25" spans="2:9">
-      <c r="B54" s="19">
+      <c r="B54" s="20">
         <v>105008</v>
       </c>
-      <c r="C54" s="19">
+      <c r="C54" s="20">
         <v>5</v>
       </c>
-      <c r="D54" s="22" t="s">
+      <c r="D54" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="E54" s="19" t="s">
+      <c r="E54" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="F54" s="20">
-        <v>1</v>
-      </c>
-      <c r="G54" s="20">
-        <v>1</v>
-      </c>
-      <c r="H54" s="20">
-        <v>1</v>
-      </c>
-      <c r="I54" s="20">
+      <c r="F54" s="21">
+        <v>1</v>
+      </c>
+      <c r="G54" s="21">
+        <v>1</v>
+      </c>
+      <c r="H54" s="21">
+        <v>1</v>
+      </c>
+      <c r="I54" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="55" ht="14.25" spans="2:9">
-      <c r="B55" s="19">
+      <c r="B55" s="20">
         <v>105009</v>
       </c>
-      <c r="C55" s="19">
+      <c r="C55" s="20">
         <v>5</v>
       </c>
-      <c r="D55" s="22" t="s">
+      <c r="D55" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="E55" s="19" t="s">
+      <c r="E55" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="F55" s="20">
-        <v>1</v>
-      </c>
-      <c r="G55" s="20">
-        <v>1</v>
-      </c>
-      <c r="H55" s="20">
-        <v>1</v>
-      </c>
-      <c r="I55" s="20">
+      <c r="F55" s="21">
+        <v>1</v>
+      </c>
+      <c r="G55" s="21">
+        <v>1</v>
+      </c>
+      <c r="H55" s="21">
+        <v>1</v>
+      </c>
+      <c r="I55" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="56" ht="15" spans="2:9">
-      <c r="B56" s="19">
+      <c r="B56" s="20">
         <v>105010</v>
       </c>
-      <c r="C56" s="19">
+      <c r="C56" s="20">
         <v>5</v>
       </c>
-      <c r="D56" s="22" t="s">
+      <c r="D56" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="E56" s="19" t="s">
+      <c r="E56" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="F56" s="23">
-        <v>1</v>
-      </c>
-      <c r="G56" s="23">
-        <v>1</v>
-      </c>
-      <c r="H56" s="23">
-        <v>1</v>
-      </c>
-      <c r="I56" s="23">
+      <c r="F56" s="24">
+        <v>1</v>
+      </c>
+      <c r="G56" s="24">
+        <v>1</v>
+      </c>
+      <c r="H56" s="24">
+        <v>1</v>
+      </c>
+      <c r="I56" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="57" ht="14.25" spans="2:9">
-      <c r="B57" s="19">
+      <c r="B57" s="20">
         <v>106001</v>
       </c>
-      <c r="C57" s="19">
+      <c r="C57" s="20">
         <v>6</v>
       </c>
-      <c r="D57" s="29" t="s">
+      <c r="D57" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="E57" s="19" t="s">
+      <c r="E57" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="F57" s="24">
-        <v>1</v>
-      </c>
-      <c r="G57" s="24">
-        <v>1</v>
-      </c>
-      <c r="H57" s="24">
-        <v>1</v>
-      </c>
-      <c r="I57" s="24">
+      <c r="F57" s="25">
+        <v>1</v>
+      </c>
+      <c r="G57" s="25">
+        <v>1</v>
+      </c>
+      <c r="H57" s="25">
+        <v>1</v>
+      </c>
+      <c r="I57" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="58" ht="14.25" spans="2:9">
-      <c r="B58" s="19">
+      <c r="B58" s="20">
         <v>106002</v>
       </c>
-      <c r="C58" s="19">
+      <c r="C58" s="20">
         <v>6</v>
       </c>
-      <c r="D58" s="29" t="s">
+      <c r="D58" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="E58" s="19" t="s">
+      <c r="E58" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="F58" s="20">
-        <v>1</v>
-      </c>
-      <c r="G58" s="20">
-        <v>1</v>
-      </c>
-      <c r="H58" s="20">
-        <v>1</v>
-      </c>
-      <c r="I58" s="20">
+      <c r="F58" s="21">
+        <v>1</v>
+      </c>
+      <c r="G58" s="21">
+        <v>1</v>
+      </c>
+      <c r="H58" s="21">
+        <v>1</v>
+      </c>
+      <c r="I58" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="59" ht="14.25" spans="2:9">
-      <c r="B59" s="19">
+      <c r="B59" s="20">
         <v>106003</v>
       </c>
-      <c r="C59" s="19">
+      <c r="C59" s="20">
         <v>6</v>
       </c>
-      <c r="D59" s="29" t="s">
+      <c r="D59" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="E59" s="19" t="s">
+      <c r="E59" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="F59" s="20">
-        <v>1</v>
-      </c>
-      <c r="G59" s="20">
-        <v>1</v>
-      </c>
-      <c r="H59" s="20">
-        <v>1</v>
-      </c>
-      <c r="I59" s="20">
+      <c r="F59" s="21">
+        <v>1</v>
+      </c>
+      <c r="G59" s="21">
+        <v>1</v>
+      </c>
+      <c r="H59" s="21">
+        <v>1</v>
+      </c>
+      <c r="I59" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="60" ht="14.25" spans="2:9">
-      <c r="B60" s="19">
+      <c r="B60" s="20">
         <v>106004</v>
       </c>
-      <c r="C60" s="19">
+      <c r="C60" s="20">
         <v>6</v>
       </c>
-      <c r="D60" s="29" t="s">
+      <c r="D60" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="E60" s="19" t="s">
+      <c r="E60" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="F60" s="20">
-        <v>1</v>
-      </c>
-      <c r="G60" s="20">
-        <v>1</v>
-      </c>
-      <c r="H60" s="20">
-        <v>1</v>
-      </c>
-      <c r="I60" s="20">
+      <c r="F60" s="21">
+        <v>1</v>
+      </c>
+      <c r="G60" s="21">
+        <v>1</v>
+      </c>
+      <c r="H60" s="21">
+        <v>1</v>
+      </c>
+      <c r="I60" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="61" ht="14.25" spans="2:9">
-      <c r="B61" s="19">
+      <c r="B61" s="20">
         <v>106005</v>
       </c>
-      <c r="C61" s="19">
+      <c r="C61" s="20">
         <v>6</v>
       </c>
-      <c r="D61" s="29" t="s">
+      <c r="D61" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="E61" s="19" t="s">
+      <c r="E61" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="F61" s="20">
-        <v>1</v>
-      </c>
-      <c r="G61" s="20">
-        <v>1</v>
-      </c>
-      <c r="H61" s="20">
-        <v>1</v>
-      </c>
-      <c r="I61" s="20">
+      <c r="F61" s="21">
+        <v>1</v>
+      </c>
+      <c r="G61" s="21">
+        <v>1</v>
+      </c>
+      <c r="H61" s="21">
+        <v>1</v>
+      </c>
+      <c r="I61" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="62" ht="14.25" spans="2:9">
-      <c r="B62" s="19">
+      <c r="B62" s="20">
         <v>106006</v>
       </c>
-      <c r="C62" s="19">
+      <c r="C62" s="20">
         <v>6</v>
       </c>
-      <c r="D62" s="29" t="s">
+      <c r="D62" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="E62" s="19" t="s">
+      <c r="E62" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="F62" s="20">
-        <v>1</v>
-      </c>
-      <c r="G62" s="20">
-        <v>1</v>
-      </c>
-      <c r="H62" s="20">
-        <v>1</v>
-      </c>
-      <c r="I62" s="20">
+      <c r="F62" s="21">
+        <v>1</v>
+      </c>
+      <c r="G62" s="21">
+        <v>1</v>
+      </c>
+      <c r="H62" s="21">
+        <v>1</v>
+      </c>
+      <c r="I62" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="63" ht="14.25" spans="2:9">
-      <c r="B63" s="19">
+      <c r="B63" s="20">
         <v>106007</v>
       </c>
-      <c r="C63" s="19">
+      <c r="C63" s="20">
         <v>6</v>
       </c>
-      <c r="D63" s="29" t="s">
+      <c r="D63" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="E63" s="19" t="s">
+      <c r="E63" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="F63" s="20">
-        <v>1</v>
-      </c>
-      <c r="G63" s="20">
-        <v>1</v>
-      </c>
-      <c r="H63" s="20">
-        <v>1</v>
-      </c>
-      <c r="I63" s="20">
+      <c r="F63" s="21">
+        <v>1</v>
+      </c>
+      <c r="G63" s="21">
+        <v>1</v>
+      </c>
+      <c r="H63" s="21">
+        <v>1</v>
+      </c>
+      <c r="I63" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="64" ht="14.25" spans="2:9">
-      <c r="B64" s="19">
+      <c r="B64" s="20">
         <v>106008</v>
       </c>
-      <c r="C64" s="19">
+      <c r="C64" s="20">
         <v>6</v>
       </c>
-      <c r="D64" s="29" t="s">
+      <c r="D64" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="E64" s="19" t="s">
+      <c r="E64" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="F64" s="20">
-        <v>1</v>
-      </c>
-      <c r="G64" s="20">
-        <v>1</v>
-      </c>
-      <c r="H64" s="20">
-        <v>1</v>
-      </c>
-      <c r="I64" s="20">
+      <c r="F64" s="21">
+        <v>1</v>
+      </c>
+      <c r="G64" s="21">
+        <v>1</v>
+      </c>
+      <c r="H64" s="21">
+        <v>1</v>
+      </c>
+      <c r="I64" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="65" ht="14.25" spans="2:9">
-      <c r="B65" s="19">
+      <c r="B65" s="20">
         <v>106009</v>
       </c>
-      <c r="C65" s="19">
+      <c r="C65" s="20">
         <v>6</v>
       </c>
-      <c r="D65" s="29" t="s">
+      <c r="D65" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="E65" s="19" t="s">
+      <c r="E65" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="F65" s="20">
-        <v>1</v>
-      </c>
-      <c r="G65" s="20">
-        <v>1</v>
-      </c>
-      <c r="H65" s="20">
-        <v>1</v>
-      </c>
-      <c r="I65" s="20">
+      <c r="F65" s="21">
+        <v>1</v>
+      </c>
+      <c r="G65" s="21">
+        <v>1</v>
+      </c>
+      <c r="H65" s="21">
+        <v>1</v>
+      </c>
+      <c r="I65" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="66" ht="15" spans="2:9">
-      <c r="B66" s="19">
+      <c r="B66" s="20">
         <v>106010</v>
       </c>
-      <c r="C66" s="19">
+      <c r="C66" s="20">
         <v>6</v>
       </c>
-      <c r="D66" s="29" t="s">
+      <c r="D66" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="E66" s="19" t="s">
+      <c r="E66" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="F66" s="23">
-        <v>1</v>
-      </c>
-      <c r="G66" s="23">
-        <v>1</v>
-      </c>
-      <c r="H66" s="23">
-        <v>1</v>
-      </c>
-      <c r="I66" s="23">
+      <c r="F66" s="24">
+        <v>1</v>
+      </c>
+      <c r="G66" s="24">
+        <v>1</v>
+      </c>
+      <c r="H66" s="24">
+        <v>1</v>
+      </c>
+      <c r="I66" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="67" ht="14.25" spans="2:9">
-      <c r="B67" s="19">
+      <c r="B67" s="20">
         <v>107001</v>
       </c>
-      <c r="C67" s="19">
+      <c r="C67" s="20">
         <v>7</v>
       </c>
-      <c r="D67" s="18" t="s">
+      <c r="D67" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="E67" s="19" t="s">
+      <c r="E67" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="F67" s="24">
-        <v>1</v>
-      </c>
-      <c r="G67" s="24">
-        <v>1</v>
-      </c>
-      <c r="H67" s="24">
-        <v>1</v>
-      </c>
-      <c r="I67" s="24">
+      <c r="F67" s="25">
+        <v>1</v>
+      </c>
+      <c r="G67" s="25">
+        <v>1</v>
+      </c>
+      <c r="H67" s="25">
+        <v>1</v>
+      </c>
+      <c r="I67" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="68" ht="14.25" spans="2:9">
-      <c r="B68" s="19">
+      <c r="B68" s="20">
         <v>107002</v>
       </c>
-      <c r="C68" s="19">
+      <c r="C68" s="20">
         <v>7</v>
       </c>
-      <c r="D68" s="18" t="s">
+      <c r="D68" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="E68" s="19" t="s">
+      <c r="E68" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="F68" s="20">
-        <v>1</v>
-      </c>
-      <c r="G68" s="20">
-        <v>1</v>
-      </c>
-      <c r="H68" s="20">
-        <v>1</v>
-      </c>
-      <c r="I68" s="20">
+      <c r="F68" s="21">
+        <v>1</v>
+      </c>
+      <c r="G68" s="21">
+        <v>1</v>
+      </c>
+      <c r="H68" s="21">
+        <v>1</v>
+      </c>
+      <c r="I68" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="69" ht="14.25" spans="2:9">
-      <c r="B69" s="19">
+      <c r="B69" s="20">
         <v>107003</v>
       </c>
-      <c r="C69" s="19">
+      <c r="C69" s="20">
         <v>7</v>
       </c>
-      <c r="D69" s="18" t="s">
+      <c r="D69" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="E69" s="19" t="s">
+      <c r="E69" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="F69" s="20">
-        <v>1</v>
-      </c>
-      <c r="G69" s="20">
-        <v>1</v>
-      </c>
-      <c r="H69" s="20">
-        <v>1</v>
-      </c>
-      <c r="I69" s="20">
+      <c r="F69" s="21">
+        <v>1</v>
+      </c>
+      <c r="G69" s="21">
+        <v>1</v>
+      </c>
+      <c r="H69" s="21">
+        <v>1</v>
+      </c>
+      <c r="I69" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="70" ht="14.25" spans="2:9">
-      <c r="B70" s="19">
+      <c r="B70" s="20">
         <v>107004</v>
       </c>
-      <c r="C70" s="19">
+      <c r="C70" s="20">
         <v>7</v>
       </c>
-      <c r="D70" s="18" t="s">
+      <c r="D70" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="E70" s="19" t="s">
+      <c r="E70" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="F70" s="20">
-        <v>1</v>
-      </c>
-      <c r="G70" s="20">
-        <v>1</v>
-      </c>
-      <c r="H70" s="20">
-        <v>1</v>
-      </c>
-      <c r="I70" s="20">
+      <c r="F70" s="21">
+        <v>1</v>
+      </c>
+      <c r="G70" s="21">
+        <v>1</v>
+      </c>
+      <c r="H70" s="21">
+        <v>1</v>
+      </c>
+      <c r="I70" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="71" ht="14.25" spans="2:9">
-      <c r="B71" s="19">
+      <c r="B71" s="20">
         <v>107005</v>
       </c>
-      <c r="C71" s="19">
+      <c r="C71" s="20">
         <v>7</v>
       </c>
-      <c r="D71" s="18" t="s">
+      <c r="D71" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="E71" s="19" t="s">
+      <c r="E71" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="F71" s="20">
-        <v>1</v>
-      </c>
-      <c r="G71" s="20">
-        <v>1</v>
-      </c>
-      <c r="H71" s="20">
-        <v>1</v>
-      </c>
-      <c r="I71" s="20">
+      <c r="F71" s="21">
+        <v>1</v>
+      </c>
+      <c r="G71" s="21">
+        <v>1</v>
+      </c>
+      <c r="H71" s="21">
+        <v>1</v>
+      </c>
+      <c r="I71" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="72" ht="14.25" spans="2:9">
-      <c r="B72" s="19">
+      <c r="B72" s="20">
         <v>107006</v>
       </c>
-      <c r="C72" s="19">
+      <c r="C72" s="20">
         <v>7</v>
       </c>
-      <c r="D72" s="18" t="s">
+      <c r="D72" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="E72" s="19" t="s">
+      <c r="E72" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="F72" s="20">
-        <v>1</v>
-      </c>
-      <c r="G72" s="20">
-        <v>1</v>
-      </c>
-      <c r="H72" s="20">
-        <v>1</v>
-      </c>
-      <c r="I72" s="20">
+      <c r="F72" s="21">
+        <v>1</v>
+      </c>
+      <c r="G72" s="21">
+        <v>1</v>
+      </c>
+      <c r="H72" s="21">
+        <v>1</v>
+      </c>
+      <c r="I72" s="21">
         <v>1</v>
       </c>
     </row>
@@ -4088,22 +4124,22 @@
       <c r="C73" s="4">
         <v>7</v>
       </c>
-      <c r="D73" s="18" t="s">
+      <c r="D73" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="E73" s="19" t="s">
+      <c r="E73" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="F73" s="20">
-        <v>1</v>
-      </c>
-      <c r="G73" s="20">
-        <v>1</v>
-      </c>
-      <c r="H73" s="20">
-        <v>1</v>
-      </c>
-      <c r="I73" s="20">
+      <c r="F73" s="21">
+        <v>1</v>
+      </c>
+      <c r="G73" s="21">
+        <v>1</v>
+      </c>
+      <c r="H73" s="21">
+        <v>1</v>
+      </c>
+      <c r="I73" s="21">
         <v>1</v>
       </c>
     </row>
@@ -4114,22 +4150,22 @@
       <c r="C74" s="4">
         <v>7</v>
       </c>
-      <c r="D74" s="30" t="s">
+      <c r="D74" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="E74" s="19" t="s">
+      <c r="E74" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="F74" s="20">
-        <v>1</v>
-      </c>
-      <c r="G74" s="20">
-        <v>1</v>
-      </c>
-      <c r="H74" s="20">
-        <v>1</v>
-      </c>
-      <c r="I74" s="20">
+      <c r="F74" s="21">
+        <v>1</v>
+      </c>
+      <c r="G74" s="21">
+        <v>1</v>
+      </c>
+      <c r="H74" s="21">
+        <v>1</v>
+      </c>
+      <c r="I74" s="21">
         <v>1</v>
       </c>
     </row>
@@ -4140,22 +4176,22 @@
       <c r="C75" s="4">
         <v>7</v>
       </c>
-      <c r="D75" s="30" t="s">
+      <c r="D75" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="E75" s="19" t="s">
+      <c r="E75" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="F75" s="20">
-        <v>1</v>
-      </c>
-      <c r="G75" s="20">
-        <v>1</v>
-      </c>
-      <c r="H75" s="20">
-        <v>1</v>
-      </c>
-      <c r="I75" s="20">
+      <c r="F75" s="21">
+        <v>1</v>
+      </c>
+      <c r="G75" s="21">
+        <v>1</v>
+      </c>
+      <c r="H75" s="21">
+        <v>1</v>
+      </c>
+      <c r="I75" s="21">
         <v>1</v>
       </c>
     </row>
@@ -4166,802 +4202,802 @@
       <c r="C76" s="4">
         <v>7</v>
       </c>
-      <c r="D76" s="30" t="s">
+      <c r="D76" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="E76" s="19" t="s">
+      <c r="E76" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="F76" s="23">
-        <v>1</v>
-      </c>
-      <c r="G76" s="23">
-        <v>1</v>
-      </c>
-      <c r="H76" s="23">
-        <v>1</v>
-      </c>
-      <c r="I76" s="23">
+      <c r="F76" s="24">
+        <v>1</v>
+      </c>
+      <c r="G76" s="24">
+        <v>1</v>
+      </c>
+      <c r="H76" s="24">
+        <v>1</v>
+      </c>
+      <c r="I76" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="77" ht="14.25" spans="2:9">
-      <c r="B77" s="21">
+      <c r="B77" s="22">
         <v>108001</v>
       </c>
-      <c r="C77" s="21">
+      <c r="C77" s="22">
         <v>8</v>
       </c>
-      <c r="D77" s="19" t="s">
+      <c r="D77" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="E77" s="19" t="s">
+      <c r="E77" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="F77" s="24">
-        <v>1</v>
-      </c>
-      <c r="G77" s="24">
-        <v>1</v>
-      </c>
-      <c r="H77" s="24">
-        <v>1</v>
-      </c>
-      <c r="I77" s="24">
+      <c r="F77" s="25">
+        <v>1</v>
+      </c>
+      <c r="G77" s="25">
+        <v>1</v>
+      </c>
+      <c r="H77" s="25">
+        <v>1</v>
+      </c>
+      <c r="I77" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="78" ht="14.25" spans="2:9">
-      <c r="B78" s="21">
+      <c r="B78" s="22">
         <v>108002</v>
       </c>
-      <c r="C78" s="21">
+      <c r="C78" s="22">
         <v>8</v>
       </c>
-      <c r="D78" s="19" t="s">
+      <c r="D78" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="E78" s="19" t="s">
+      <c r="E78" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="F78" s="20">
-        <v>1</v>
-      </c>
-      <c r="G78" s="20">
-        <v>1</v>
-      </c>
-      <c r="H78" s="20">
-        <v>1</v>
-      </c>
-      <c r="I78" s="20">
+      <c r="F78" s="21">
+        <v>1</v>
+      </c>
+      <c r="G78" s="21">
+        <v>1</v>
+      </c>
+      <c r="H78" s="21">
+        <v>1</v>
+      </c>
+      <c r="I78" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="79" ht="14.25" spans="2:9">
-      <c r="B79" s="21">
+      <c r="B79" s="22">
         <v>108003</v>
       </c>
-      <c r="C79" s="21">
+      <c r="C79" s="22">
         <v>8</v>
       </c>
-      <c r="D79" s="19" t="s">
+      <c r="D79" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="E79" s="19" t="s">
+      <c r="E79" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="F79" s="20">
-        <v>1</v>
-      </c>
-      <c r="G79" s="20">
-        <v>1</v>
-      </c>
-      <c r="H79" s="20">
-        <v>1</v>
-      </c>
-      <c r="I79" s="20">
+      <c r="F79" s="21">
+        <v>1</v>
+      </c>
+      <c r="G79" s="21">
+        <v>1</v>
+      </c>
+      <c r="H79" s="21">
+        <v>1</v>
+      </c>
+      <c r="I79" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="80" ht="14.25" spans="2:9">
-      <c r="B80" s="21">
+      <c r="B80" s="22">
         <v>108004</v>
       </c>
-      <c r="C80" s="21">
+      <c r="C80" s="22">
         <v>8</v>
       </c>
-      <c r="D80" s="19" t="s">
+      <c r="D80" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="E80" s="19" t="s">
+      <c r="E80" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="F80" s="20">
-        <v>1</v>
-      </c>
-      <c r="G80" s="20">
-        <v>1</v>
-      </c>
-      <c r="H80" s="20">
-        <v>1</v>
-      </c>
-      <c r="I80" s="20">
+      <c r="F80" s="21">
+        <v>1</v>
+      </c>
+      <c r="G80" s="21">
+        <v>1</v>
+      </c>
+      <c r="H80" s="21">
+        <v>1</v>
+      </c>
+      <c r="I80" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="81" ht="14.25" spans="2:9">
-      <c r="B81" s="21">
+      <c r="B81" s="22">
         <v>108005</v>
       </c>
-      <c r="C81" s="21">
+      <c r="C81" s="22">
         <v>8</v>
       </c>
-      <c r="D81" s="19" t="s">
+      <c r="D81" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="E81" s="19" t="s">
+      <c r="E81" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="F81" s="20">
-        <v>1</v>
-      </c>
-      <c r="G81" s="20">
-        <v>1</v>
-      </c>
-      <c r="H81" s="20">
-        <v>1</v>
-      </c>
-      <c r="I81" s="20">
+      <c r="F81" s="21">
+        <v>1</v>
+      </c>
+      <c r="G81" s="21">
+        <v>1</v>
+      </c>
+      <c r="H81" s="21">
+        <v>1</v>
+      </c>
+      <c r="I81" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="82" ht="14.25" spans="2:9">
-      <c r="B82" s="21">
+      <c r="B82" s="22">
         <v>108006</v>
       </c>
-      <c r="C82" s="21">
+      <c r="C82" s="22">
         <v>8</v>
       </c>
-      <c r="D82" s="19" t="s">
+      <c r="D82" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="E82" s="19" t="s">
+      <c r="E82" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="F82" s="20">
-        <v>1</v>
-      </c>
-      <c r="G82" s="20">
-        <v>1</v>
-      </c>
-      <c r="H82" s="20">
-        <v>1</v>
-      </c>
-      <c r="I82" s="20">
+      <c r="F82" s="21">
+        <v>1</v>
+      </c>
+      <c r="G82" s="21">
+        <v>1</v>
+      </c>
+      <c r="H82" s="21">
+        <v>1</v>
+      </c>
+      <c r="I82" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="83" ht="14.25" spans="2:9">
-      <c r="B83" s="21">
+      <c r="B83" s="22">
         <v>108007</v>
       </c>
-      <c r="C83" s="21">
+      <c r="C83" s="22">
         <v>8</v>
       </c>
-      <c r="D83" s="19" t="s">
+      <c r="D83" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="E83" s="19" t="s">
+      <c r="E83" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="F83" s="20">
-        <v>1</v>
-      </c>
-      <c r="G83" s="20">
-        <v>1</v>
-      </c>
-      <c r="H83" s="20">
-        <v>1</v>
-      </c>
-      <c r="I83" s="20">
+      <c r="F83" s="21">
+        <v>1</v>
+      </c>
+      <c r="G83" s="21">
+        <v>1</v>
+      </c>
+      <c r="H83" s="21">
+        <v>1</v>
+      </c>
+      <c r="I83" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="84" ht="14.25" spans="2:9">
-      <c r="B84" s="21">
+      <c r="B84" s="22">
         <v>108008</v>
       </c>
-      <c r="C84" s="21">
+      <c r="C84" s="22">
         <v>8</v>
       </c>
-      <c r="D84" s="19" t="s">
+      <c r="D84" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="E84" s="19" t="s">
+      <c r="E84" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="F84" s="20">
-        <v>1</v>
-      </c>
-      <c r="G84" s="20">
-        <v>1</v>
-      </c>
-      <c r="H84" s="20">
-        <v>1</v>
-      </c>
-      <c r="I84" s="20">
+      <c r="F84" s="21">
+        <v>1</v>
+      </c>
+      <c r="G84" s="21">
+        <v>1</v>
+      </c>
+      <c r="H84" s="21">
+        <v>1</v>
+      </c>
+      <c r="I84" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="85" ht="14.25" spans="2:9">
-      <c r="B85" s="21">
+      <c r="B85" s="22">
         <v>108009</v>
       </c>
-      <c r="C85" s="21">
+      <c r="C85" s="22">
         <v>8</v>
       </c>
-      <c r="D85" s="19" t="s">
+      <c r="D85" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="E85" s="19" t="s">
+      <c r="E85" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="F85" s="20">
-        <v>1</v>
-      </c>
-      <c r="G85" s="20">
-        <v>1</v>
-      </c>
-      <c r="H85" s="20">
-        <v>1</v>
-      </c>
-      <c r="I85" s="20">
+      <c r="F85" s="21">
+        <v>1</v>
+      </c>
+      <c r="G85" s="21">
+        <v>1</v>
+      </c>
+      <c r="H85" s="21">
+        <v>1</v>
+      </c>
+      <c r="I85" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="86" ht="15" spans="2:9">
-      <c r="B86" s="21">
+      <c r="B86" s="22">
         <v>108010</v>
       </c>
-      <c r="C86" s="21">
+      <c r="C86" s="22">
         <v>8</v>
       </c>
-      <c r="D86" s="19" t="s">
+      <c r="D86" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="E86" s="19" t="s">
+      <c r="E86" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="F86" s="23">
-        <v>1</v>
-      </c>
-      <c r="G86" s="23">
-        <v>1</v>
-      </c>
-      <c r="H86" s="23">
-        <v>1</v>
-      </c>
-      <c r="I86" s="23">
+      <c r="F86" s="24">
+        <v>1</v>
+      </c>
+      <c r="G86" s="24">
+        <v>1</v>
+      </c>
+      <c r="H86" s="24">
+        <v>1</v>
+      </c>
+      <c r="I86" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="87" ht="14.25" spans="2:9">
-      <c r="B87" s="21">
+      <c r="B87" s="22">
         <v>201001</v>
       </c>
-      <c r="C87" s="21">
+      <c r="C87" s="22">
         <v>9</v>
       </c>
-      <c r="D87" s="19" t="s">
+      <c r="D87" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="E87" s="19" t="s">
+      <c r="E87" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="F87" s="24">
-        <v>1</v>
-      </c>
-      <c r="G87" s="24">
-        <v>1</v>
-      </c>
-      <c r="H87" s="24">
-        <v>1</v>
-      </c>
-      <c r="I87" s="24">
+      <c r="F87" s="25">
+        <v>1</v>
+      </c>
+      <c r="G87" s="25">
+        <v>1</v>
+      </c>
+      <c r="H87" s="25">
+        <v>1</v>
+      </c>
+      <c r="I87" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="88" ht="14.25" spans="2:9">
-      <c r="B88" s="21">
+      <c r="B88" s="22">
         <v>201002</v>
       </c>
-      <c r="C88" s="21">
+      <c r="C88" s="22">
         <v>9</v>
       </c>
-      <c r="D88" s="19" t="s">
+      <c r="D88" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="E88" s="19" t="s">
+      <c r="E88" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="F88" s="20">
-        <v>1</v>
-      </c>
-      <c r="G88" s="20">
-        <v>1</v>
-      </c>
-      <c r="H88" s="20">
-        <v>1</v>
-      </c>
-      <c r="I88" s="20">
+      <c r="F88" s="21">
+        <v>1</v>
+      </c>
+      <c r="G88" s="21">
+        <v>1</v>
+      </c>
+      <c r="H88" s="21">
+        <v>1</v>
+      </c>
+      <c r="I88" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="89" ht="14.25" spans="2:9">
-      <c r="B89" s="21">
+      <c r="B89" s="22">
         <v>201003</v>
       </c>
-      <c r="C89" s="21">
+      <c r="C89" s="22">
         <v>9</v>
       </c>
-      <c r="D89" s="19" t="s">
+      <c r="D89" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="E89" s="19" t="s">
+      <c r="E89" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="F89" s="20">
-        <v>1</v>
-      </c>
-      <c r="G89" s="20">
-        <v>1</v>
-      </c>
-      <c r="H89" s="20">
-        <v>1</v>
-      </c>
-      <c r="I89" s="20">
+      <c r="F89" s="21">
+        <v>1</v>
+      </c>
+      <c r="G89" s="21">
+        <v>1</v>
+      </c>
+      <c r="H89" s="21">
+        <v>1</v>
+      </c>
+      <c r="I89" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="90" ht="14.25" spans="2:9">
-      <c r="B90" s="21">
+      <c r="B90" s="22">
         <v>201004</v>
       </c>
-      <c r="C90" s="21">
+      <c r="C90" s="22">
         <v>9</v>
       </c>
-      <c r="D90" s="19" t="s">
+      <c r="D90" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="E90" s="19" t="s">
+      <c r="E90" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="F90" s="20">
-        <v>1</v>
-      </c>
-      <c r="G90" s="20">
-        <v>1</v>
-      </c>
-      <c r="H90" s="20">
-        <v>1</v>
-      </c>
-      <c r="I90" s="20">
+      <c r="F90" s="21">
+        <v>1</v>
+      </c>
+      <c r="G90" s="21">
+        <v>1</v>
+      </c>
+      <c r="H90" s="21">
+        <v>1</v>
+      </c>
+      <c r="I90" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="91" ht="14.25" spans="2:9">
-      <c r="B91" s="21">
+      <c r="B91" s="22">
         <v>201005</v>
       </c>
-      <c r="C91" s="21">
+      <c r="C91" s="22">
         <v>9</v>
       </c>
-      <c r="D91" s="19" t="s">
+      <c r="D91" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="E91" s="19" t="s">
+      <c r="E91" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="F91" s="20">
-        <v>1</v>
-      </c>
-      <c r="G91" s="20">
-        <v>1</v>
-      </c>
-      <c r="H91" s="20">
-        <v>1</v>
-      </c>
-      <c r="I91" s="20">
+      <c r="F91" s="21">
+        <v>1</v>
+      </c>
+      <c r="G91" s="21">
+        <v>1</v>
+      </c>
+      <c r="H91" s="21">
+        <v>1</v>
+      </c>
+      <c r="I91" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="92" ht="14.25" spans="2:9">
-      <c r="B92" s="21">
+      <c r="B92" s="22">
         <v>201006</v>
       </c>
-      <c r="C92" s="21">
+      <c r="C92" s="22">
         <v>9</v>
       </c>
-      <c r="D92" s="19" t="s">
+      <c r="D92" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="E92" s="19" t="s">
+      <c r="E92" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="F92" s="20">
-        <v>1</v>
-      </c>
-      <c r="G92" s="20">
-        <v>1</v>
-      </c>
-      <c r="H92" s="20">
-        <v>1</v>
-      </c>
-      <c r="I92" s="20">
+      <c r="F92" s="21">
+        <v>1</v>
+      </c>
+      <c r="G92" s="21">
+        <v>1</v>
+      </c>
+      <c r="H92" s="21">
+        <v>1</v>
+      </c>
+      <c r="I92" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="93" ht="14.25" spans="2:9">
-      <c r="B93" s="21">
+      <c r="B93" s="22">
         <v>201007</v>
       </c>
-      <c r="C93" s="21">
+      <c r="C93" s="22">
         <v>9</v>
       </c>
-      <c r="D93" s="19" t="s">
+      <c r="D93" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="E93" s="19" t="s">
+      <c r="E93" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="F93" s="20">
-        <v>1</v>
-      </c>
-      <c r="G93" s="20">
-        <v>1</v>
-      </c>
-      <c r="H93" s="20">
-        <v>1</v>
-      </c>
-      <c r="I93" s="20">
+      <c r="F93" s="21">
+        <v>1</v>
+      </c>
+      <c r="G93" s="21">
+        <v>1</v>
+      </c>
+      <c r="H93" s="21">
+        <v>1</v>
+      </c>
+      <c r="I93" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="94" ht="14.25" spans="2:9">
-      <c r="B94" s="26">
+      <c r="B94" s="27">
         <v>201008</v>
       </c>
-      <c r="C94" s="26">
+      <c r="C94" s="27">
         <v>9</v>
       </c>
-      <c r="D94" s="31" t="s">
+      <c r="D94" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="E94" s="19" t="s">
+      <c r="E94" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="F94" s="20">
-        <v>1</v>
-      </c>
-      <c r="G94" s="20">
-        <v>1</v>
-      </c>
-      <c r="H94" s="20">
-        <v>1</v>
-      </c>
-      <c r="I94" s="20">
+      <c r="F94" s="21">
+        <v>1</v>
+      </c>
+      <c r="G94" s="21">
+        <v>1</v>
+      </c>
+      <c r="H94" s="21">
+        <v>1</v>
+      </c>
+      <c r="I94" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="95" ht="14.25" spans="2:9">
-      <c r="B95" s="26">
+      <c r="B95" s="27">
         <v>201009</v>
       </c>
-      <c r="C95" s="26">
+      <c r="C95" s="27">
         <v>9</v>
       </c>
-      <c r="D95" s="31" t="s">
+      <c r="D95" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="E95" s="19" t="s">
+      <c r="E95" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="F95" s="20">
-        <v>1</v>
-      </c>
-      <c r="G95" s="20">
-        <v>1</v>
-      </c>
-      <c r="H95" s="20">
-        <v>1</v>
-      </c>
-      <c r="I95" s="20">
+      <c r="F95" s="21">
+        <v>1</v>
+      </c>
+      <c r="G95" s="21">
+        <v>1</v>
+      </c>
+      <c r="H95" s="21">
+        <v>1</v>
+      </c>
+      <c r="I95" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="96" ht="15" spans="2:9">
-      <c r="B96" s="26">
+      <c r="B96" s="27">
         <v>201010</v>
       </c>
-      <c r="C96" s="26">
+      <c r="C96" s="27">
         <v>9</v>
       </c>
-      <c r="D96" s="31" t="s">
+      <c r="D96" s="32" t="s">
         <v>199</v>
       </c>
-      <c r="E96" s="19" t="s">
+      <c r="E96" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="F96" s="23">
-        <v>1</v>
-      </c>
-      <c r="G96" s="23">
-        <v>1</v>
-      </c>
-      <c r="H96" s="23">
-        <v>1</v>
-      </c>
-      <c r="I96" s="23">
+      <c r="F96" s="24">
+        <v>1</v>
+      </c>
+      <c r="G96" s="24">
+        <v>1</v>
+      </c>
+      <c r="H96" s="24">
+        <v>1</v>
+      </c>
+      <c r="I96" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="97" ht="14.25" spans="2:9">
-      <c r="B97" s="17">
+      <c r="B97" s="18">
         <v>301001</v>
       </c>
-      <c r="C97" s="17">
+      <c r="C97" s="18">
         <v>10</v>
       </c>
-      <c r="D97" s="19" t="s">
+      <c r="D97" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="E97" s="19" t="s">
+      <c r="E97" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="F97" s="24">
-        <v>1</v>
-      </c>
-      <c r="G97" s="24">
-        <v>1</v>
-      </c>
-      <c r="H97" s="24">
-        <v>1</v>
-      </c>
-      <c r="I97" s="24">
+      <c r="F97" s="25">
+        <v>1</v>
+      </c>
+      <c r="G97" s="25">
+        <v>1</v>
+      </c>
+      <c r="H97" s="25">
+        <v>1</v>
+      </c>
+      <c r="I97" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="98" ht="14.25" spans="2:9">
-      <c r="B98" s="21">
+      <c r="B98" s="22">
         <v>301002</v>
       </c>
-      <c r="C98" s="21">
+      <c r="C98" s="22">
         <v>10</v>
       </c>
-      <c r="D98" s="19" t="s">
+      <c r="D98" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="E98" s="19" t="s">
+      <c r="E98" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="F98" s="20">
-        <v>1</v>
-      </c>
-      <c r="G98" s="20">
-        <v>1</v>
-      </c>
-      <c r="H98" s="20">
-        <v>1</v>
-      </c>
-      <c r="I98" s="20">
+      <c r="F98" s="21">
+        <v>1</v>
+      </c>
+      <c r="G98" s="21">
+        <v>1</v>
+      </c>
+      <c r="H98" s="21">
+        <v>1</v>
+      </c>
+      <c r="I98" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="99" ht="14.25" spans="2:9">
-      <c r="B99" s="21">
+      <c r="B99" s="22">
         <v>301003</v>
       </c>
-      <c r="C99" s="21">
+      <c r="C99" s="22">
         <v>10</v>
       </c>
-      <c r="D99" s="19" t="s">
+      <c r="D99" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="E99" s="19" t="s">
+      <c r="E99" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="F99" s="20">
-        <v>1</v>
-      </c>
-      <c r="G99" s="20">
-        <v>1</v>
-      </c>
-      <c r="H99" s="20">
-        <v>1</v>
-      </c>
-      <c r="I99" s="20">
+      <c r="F99" s="21">
+        <v>1</v>
+      </c>
+      <c r="G99" s="21">
+        <v>1</v>
+      </c>
+      <c r="H99" s="21">
+        <v>1</v>
+      </c>
+      <c r="I99" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="100" ht="14.25" spans="2:9">
-      <c r="B100" s="21">
+      <c r="B100" s="22">
         <v>301004</v>
       </c>
-      <c r="C100" s="21">
+      <c r="C100" s="22">
         <v>10</v>
       </c>
-      <c r="D100" s="19" t="s">
+      <c r="D100" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="E100" s="19" t="s">
+      <c r="E100" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="F100" s="20">
-        <v>1</v>
-      </c>
-      <c r="G100" s="20">
-        <v>1</v>
-      </c>
-      <c r="H100" s="20">
-        <v>1</v>
-      </c>
-      <c r="I100" s="20">
+      <c r="F100" s="21">
+        <v>1</v>
+      </c>
+      <c r="G100" s="21">
+        <v>1</v>
+      </c>
+      <c r="H100" s="21">
+        <v>1</v>
+      </c>
+      <c r="I100" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="101" ht="14.25" spans="2:9">
-      <c r="B101" s="21">
+      <c r="B101" s="22">
         <v>301005</v>
       </c>
-      <c r="C101" s="21">
+      <c r="C101" s="22">
         <v>10</v>
       </c>
-      <c r="D101" s="19" t="s">
+      <c r="D101" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="E101" s="19" t="s">
+      <c r="E101" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="F101" s="20">
-        <v>1</v>
-      </c>
-      <c r="G101" s="20">
-        <v>1</v>
-      </c>
-      <c r="H101" s="20">
-        <v>1</v>
-      </c>
-      <c r="I101" s="20">
+      <c r="F101" s="21">
+        <v>1</v>
+      </c>
+      <c r="G101" s="21">
+        <v>1</v>
+      </c>
+      <c r="H101" s="21">
+        <v>1</v>
+      </c>
+      <c r="I101" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="102" ht="14.25" spans="2:9">
-      <c r="B102" s="21">
+      <c r="B102" s="22">
         <v>301006</v>
       </c>
-      <c r="C102" s="21">
+      <c r="C102" s="22">
         <v>10</v>
       </c>
-      <c r="D102" s="19" t="s">
+      <c r="D102" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="E102" s="19" t="s">
+      <c r="E102" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="F102" s="20">
-        <v>1</v>
-      </c>
-      <c r="G102" s="20">
-        <v>1</v>
-      </c>
-      <c r="H102" s="20">
-        <v>1</v>
-      </c>
-      <c r="I102" s="20">
+      <c r="F102" s="21">
+        <v>1</v>
+      </c>
+      <c r="G102" s="21">
+        <v>1</v>
+      </c>
+      <c r="H102" s="21">
+        <v>1</v>
+      </c>
+      <c r="I102" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="103" ht="14.25" spans="2:9">
-      <c r="B103" s="21">
+      <c r="B103" s="22">
         <v>301007</v>
       </c>
-      <c r="C103" s="21">
+      <c r="C103" s="22">
         <v>10</v>
       </c>
-      <c r="D103" s="19" t="s">
+      <c r="D103" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="E103" s="19" t="s">
+      <c r="E103" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="F103" s="20">
-        <v>1</v>
-      </c>
-      <c r="G103" s="20">
-        <v>1</v>
-      </c>
-      <c r="H103" s="20">
-        <v>1</v>
-      </c>
-      <c r="I103" s="20">
+      <c r="F103" s="21">
+        <v>1</v>
+      </c>
+      <c r="G103" s="21">
+        <v>1</v>
+      </c>
+      <c r="H103" s="21">
+        <v>1</v>
+      </c>
+      <c r="I103" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="104" ht="14.25" spans="2:9">
-      <c r="B104" s="21">
+      <c r="B104" s="22">
         <v>301008</v>
       </c>
-      <c r="C104" s="21">
+      <c r="C104" s="22">
         <v>10</v>
       </c>
-      <c r="D104" s="19" t="s">
+      <c r="D104" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="E104" s="19" t="s">
+      <c r="E104" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="F104" s="20">
-        <v>1</v>
-      </c>
-      <c r="G104" s="20">
-        <v>1</v>
-      </c>
-      <c r="H104" s="20">
-        <v>1</v>
-      </c>
-      <c r="I104" s="20">
+      <c r="F104" s="21">
+        <v>1</v>
+      </c>
+      <c r="G104" s="21">
+        <v>1</v>
+      </c>
+      <c r="H104" s="21">
+        <v>1</v>
+      </c>
+      <c r="I104" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="105" ht="14.25" spans="2:9">
-      <c r="B105" s="21">
+      <c r="B105" s="22">
         <v>301009</v>
       </c>
-      <c r="C105" s="21">
+      <c r="C105" s="22">
         <v>10</v>
       </c>
-      <c r="D105" s="19" t="s">
+      <c r="D105" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="E105" s="19" t="s">
+      <c r="E105" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="F105" s="20">
-        <v>1</v>
-      </c>
-      <c r="G105" s="20">
-        <v>1</v>
-      </c>
-      <c r="H105" s="20">
-        <v>1</v>
-      </c>
-      <c r="I105" s="20">
+      <c r="F105" s="21">
+        <v>1</v>
+      </c>
+      <c r="G105" s="21">
+        <v>1</v>
+      </c>
+      <c r="H105" s="21">
+        <v>1</v>
+      </c>
+      <c r="I105" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="106" ht="14.25" spans="2:9">
-      <c r="B106" s="26">
+      <c r="B106" s="27">
         <v>301010</v>
       </c>
-      <c r="C106" s="26">
+      <c r="C106" s="27">
         <v>10</v>
       </c>
-      <c r="D106" s="19" t="s">
+      <c r="D106" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="E106" s="19" t="s">
+      <c r="E106" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="F106" s="20">
-        <v>1</v>
-      </c>
-      <c r="G106" s="20">
-        <v>1</v>
-      </c>
-      <c r="H106" s="20">
-        <v>1</v>
-      </c>
-      <c r="I106" s="20">
+      <c r="F106" s="21">
+        <v>1</v>
+      </c>
+      <c r="G106" s="21">
+        <v>1</v>
+      </c>
+      <c r="H106" s="21">
+        <v>1</v>
+      </c>
+      <c r="I106" s="21">
         <v>1</v>
       </c>
     </row>
@@ -4976,18 +5012,18 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7:F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="5" max="5" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5003,8 +5039,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -5012,8 +5051,9 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -5021,7 +5061,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>11</v>
@@ -5029,8 +5069,11 @@
       <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -5038,8 +5081,9 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -5047,25 +5091,29 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25" spans="2:5">
+        <v>229</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" spans="2:6">
       <c r="B7" s="3">
         <v>1</v>
       </c>
@@ -5073,13 +5121,16 @@
         <v>0.9</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" spans="2:5">
+        <v>232</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="2:6">
       <c r="B8" s="3">
         <v>2</v>
       </c>
@@ -5087,13 +5138,16 @@
         <v>1</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E8" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25" spans="2:5">
+        <v>235</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" spans="2:6">
       <c r="B9" s="3">
         <v>3</v>
       </c>
@@ -5101,13 +5155,16 @@
         <v>1.1</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="E9" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25" spans="2:5">
+        <v>238</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" spans="2:6">
       <c r="B10" s="3">
         <v>4</v>
       </c>
@@ -5115,13 +5172,16 @@
         <v>1.2</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="E10" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="11" ht="14.25" spans="2:5">
+        <v>241</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25" spans="2:6">
       <c r="B11" s="3">
         <v>5</v>
       </c>
@@ -5129,13 +5189,16 @@
         <v>1.3</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="E11" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25" spans="2:5">
+        <v>244</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" spans="2:6">
       <c r="B12" s="3">
         <v>6</v>
       </c>
@@ -5143,13 +5206,16 @@
         <v>1.4</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="E12" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25" spans="2:5">
+        <v>247</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" spans="2:6">
       <c r="B13" s="3">
         <v>7</v>
       </c>
@@ -5157,13 +5223,16 @@
         <v>1.5</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="E13" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="14" ht="14.25" spans="2:5">
+        <v>250</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" spans="2:6">
       <c r="B14" s="3">
         <v>8</v>
       </c>
@@ -5171,13 +5240,16 @@
         <v>1.6</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="E14" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25" spans="2:5">
+        <v>253</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" spans="2:6">
       <c r="B15" s="3">
         <v>9</v>
       </c>
@@ -5185,10 +5257,13 @@
         <v>1.7</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="E15" t="s">
-        <v>246</v>
+        <v>256</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -5203,7 +5278,7 @@
   <sheetPr/>
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
@@ -5225,7 +5300,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>5</v>
@@ -5310,25 +5385,25 @@
         <v>13</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="2:8">
@@ -5336,7 +5411,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="D7" s="4">
         <v>2</v>
@@ -5351,7 +5426,7 @@
         <v>3</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="2:8">
@@ -5359,7 +5434,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="D8" s="4">
         <v>3</v>
@@ -5374,7 +5449,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="2:8">
@@ -5382,7 +5457,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="D9" s="5">
         <v>3</v>
@@ -5397,7 +5472,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="2:8">
@@ -5405,7 +5480,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="D10" s="4">
         <v>7</v>
@@ -5420,7 +5495,7 @@
         <v>3</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="2:8">
@@ -5428,7 +5503,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="D11" s="10">
         <v>10</v>
@@ -5443,7 +5518,7 @@
         <v>6</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="2:8">
@@ -5451,7 +5526,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="D12" s="4">
         <v>4</v>
@@ -5466,7 +5541,7 @@
         <v>3</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="2:8">
@@ -5474,7 +5549,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="D13" s="4">
         <v>6</v>
@@ -5489,7 +5564,7 @@
         <v>10</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="2:8">
@@ -5497,7 +5572,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="D14" s="4">
         <v>8</v>
@@ -5512,7 +5587,7 @@
         <v>8</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" ht="14.25" spans="2:8">
@@ -5520,14 +5595,14 @@
         <v>9</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="5"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="2:8">
@@ -5535,14 +5610,14 @@
         <v>10</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
       <c r="F16" s="14"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="2:8">
@@ -5550,14 +5625,14 @@
         <v>11</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
       <c r="F17" s="14"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="2:8">
@@ -5565,14 +5640,14 @@
         <v>12</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
       <c r="F18" s="14"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="2:8">
@@ -5580,14 +5655,14 @@
         <v>13</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
       <c r="F19" s="14"/>
       <c r="G19" s="13"/>
       <c r="H19" s="13" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="2:8">
@@ -5595,14 +5670,14 @@
         <v>14</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
       <c r="H20" s="15" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -5634,16 +5709,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -5695,16 +5770,16 @@
         <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="2:5">

--- a/LubanTools/DesignerConfigs/Datas/物品配置表.xlsx
+++ b/LubanTools/DesignerConfigs/Datas/物品配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21555" windowHeight="11670" activeTab="1"/>
+    <workbookView windowWidth="21555" windowHeight="11070" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="物品表" sheetId="1" r:id="rId1"/>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="302">
   <si>
     <t>##var</t>
   </si>
@@ -950,15 +950,21 @@
     <t>道具B类</t>
   </si>
   <si>
-    <t>icon_type_food</t>
+    <t>icon_type_foodB</t>
   </si>
   <si>
     <t>道具C类</t>
   </si>
   <si>
+    <t>icon_type_foodC</t>
+  </si>
+  <si>
     <t>道具D类</t>
   </si>
   <si>
+    <t>icon_type_foodD</t>
+  </si>
+  <si>
     <t>巢A类</t>
   </si>
   <si>
@@ -968,7 +974,7 @@
     <t>巢B类</t>
   </si>
   <si>
-    <t>icon_type_nest</t>
+    <t>icon_type_nestB</t>
   </si>
   <si>
     <t>hp_base</t>
@@ -5014,7 +5020,7 @@
   <sheetPr/>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7:F15"/>
     </sheetView>
   </sheetViews>
@@ -5278,8 +5284,8 @@
   <sheetPr/>
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -5289,7 +5295,7 @@
     <col min="5" max="5" width="11.75" customWidth="1"/>
     <col min="6" max="6" width="13.625" customWidth="1"/>
     <col min="7" max="7" width="11.875" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="8" max="8" width="23.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:8">
@@ -5632,7 +5638,7 @@
       <c r="F17" s="14"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="2:8">
@@ -5640,14 +5646,14 @@
         <v>12</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
       <c r="F18" s="14"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="2:8">
@@ -5655,14 +5661,14 @@
         <v>13</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
       <c r="F19" s="14"/>
       <c r="G19" s="13"/>
       <c r="H19" s="13" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="2:8">
@@ -5670,14 +5676,14 @@
         <v>14</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
       <c r="H20" s="15" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -5709,16 +5715,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -5770,16 +5776,16 @@
         <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="2:5">

--- a/LubanTools/DesignerConfigs/Datas/物品配置表.xlsx
+++ b/LubanTools/DesignerConfigs/Datas/物品配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21555" windowHeight="11070" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="物品表" sheetId="1" r:id="rId1"/>
@@ -131,6 +131,9 @@
     <t>string</t>
   </si>
   <si>
+    <t>float</t>
+  </si>
+  <si>
     <t>##group</t>
   </si>
   <si>
@@ -768,9 +771,6 @@
   </si>
   <si>
     <t>color</t>
-  </si>
-  <si>
-    <t>float</t>
   </si>
   <si>
     <t>品质</t>
@@ -2271,8 +2271,8 @@
   <sheetPr/>
   <dimension ref="A1:I106"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2340,21 +2340,21 @@
         <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2380,31 +2380,31 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="2:9">
@@ -2415,22 +2415,22 @@
         <v>1</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F7" s="21">
         <v>1</v>
       </c>
       <c r="G7" s="21">
-        <v>-1</v>
+        <v>0.9</v>
       </c>
       <c r="H7" s="21">
-        <v>-1</v>
+        <v>0.9</v>
       </c>
       <c r="I7" s="21">
-        <v>-1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="2:9">
@@ -2441,19 +2441,19 @@
         <v>1</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F8" s="21">
         <v>1</v>
       </c>
       <c r="G8" s="21">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H8" s="21">
-        <v>-1</v>
+        <v>0.9</v>
       </c>
       <c r="I8" s="21">
         <v>1</v>
@@ -2467,16 +2467,16 @@
         <v>1</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F9" s="21">
         <v>1</v>
       </c>
       <c r="G9" s="21">
-        <v>-1</v>
+        <v>0.9</v>
       </c>
       <c r="H9" s="21">
         <v>1</v>
@@ -2493,19 +2493,19 @@
         <v>1</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F10" s="21">
-        <v>-1</v>
+        <v>0.9</v>
       </c>
       <c r="G10" s="21">
         <v>1</v>
       </c>
       <c r="H10" s="21">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="I10" s="21">
         <v>1</v>
@@ -2519,16 +2519,16 @@
         <v>1</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F11" s="21">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="G11" s="21">
-        <v>-1</v>
+        <v>0.9</v>
       </c>
       <c r="H11" s="21">
         <v>1</v>
@@ -2545,10 +2545,10 @@
         <v>1</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F12" s="21">
         <v>1</v>
@@ -2557,7 +2557,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="21">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="I12" s="21">
         <v>1</v>
@@ -2571,13 +2571,13 @@
         <v>1</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F13" s="21">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="G13" s="21">
         <v>1</v>
@@ -2586,7 +2586,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="21">
-        <v>2</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="2:9">
@@ -2597,19 +2597,19 @@
         <v>1</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F14" s="21">
         <v>1</v>
       </c>
       <c r="G14" s="21">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H14" s="21">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="I14" s="21">
         <v>1</v>
@@ -2623,10 +2623,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F15" s="21">
         <v>1</v>
@@ -2649,22 +2649,22 @@
         <v>1</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" s="24">
-        <v>2</v>
+        <v>41</v>
+      </c>
+      <c r="F16" s="21">
+        <v>1.1</v>
       </c>
       <c r="G16" s="24">
         <v>1</v>
       </c>
       <c r="H16" s="24">
-        <v>3</v>
-      </c>
-      <c r="I16" s="24">
-        <v>2</v>
+        <v>1.2</v>
+      </c>
+      <c r="I16" s="21">
+        <v>1.1</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="2:9">
@@ -2675,10 +2675,10 @@
         <v>2</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F17" s="25">
         <v>1</v>
@@ -2701,10 +2701,10 @@
         <v>2</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" s="21">
         <v>1</v>
@@ -2727,10 +2727,10 @@
         <v>2</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F19" s="21">
         <v>1</v>
@@ -2753,10 +2753,10 @@
         <v>2</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F20" s="21">
         <v>1</v>
@@ -2779,10 +2779,10 @@
         <v>2</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F21" s="21">
         <v>1</v>
@@ -2805,10 +2805,10 @@
         <v>2</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F22" s="21">
         <v>1</v>
@@ -2831,10 +2831,10 @@
         <v>2</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F23" s="21">
         <v>1</v>
@@ -2857,10 +2857,10 @@
         <v>2</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F24" s="21">
         <v>1</v>
@@ -2883,10 +2883,10 @@
         <v>2</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F25" s="21">
         <v>1</v>
@@ -2909,10 +2909,10 @@
         <v>2</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F26" s="24">
         <v>1</v>
@@ -2935,10 +2935,10 @@
         <v>3</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F27" s="25">
         <v>1</v>
@@ -2961,10 +2961,10 @@
         <v>3</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F28" s="21">
         <v>1</v>
@@ -2987,10 +2987,10 @@
         <v>3</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F29" s="21">
         <v>1</v>
@@ -3013,10 +3013,10 @@
         <v>3</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F30" s="21">
         <v>1</v>
@@ -3039,10 +3039,10 @@
         <v>3</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F31" s="21">
         <v>1</v>
@@ -3065,10 +3065,10 @@
         <v>3</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F32" s="21">
         <v>1</v>
@@ -3091,10 +3091,10 @@
         <v>3</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F33" s="21">
         <v>1</v>
@@ -3117,10 +3117,10 @@
         <v>3</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E34" s="20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F34" s="21">
         <v>1</v>
@@ -3143,10 +3143,10 @@
         <v>3</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E35" s="20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F35" s="21">
         <v>1</v>
@@ -3169,10 +3169,10 @@
         <v>3</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E36" s="20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F36" s="24">
         <v>1</v>
@@ -3195,10 +3195,10 @@
         <v>4</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F37" s="25">
         <v>1</v>
@@ -3221,10 +3221,10 @@
         <v>4</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E38" s="20" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F38" s="21">
         <v>1</v>
@@ -3247,10 +3247,10 @@
         <v>4</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E39" s="20" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F39" s="21">
         <v>1</v>
@@ -3273,10 +3273,10 @@
         <v>4</v>
       </c>
       <c r="D40" s="23" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E40" s="20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F40" s="21">
         <v>1</v>
@@ -3299,10 +3299,10 @@
         <v>4</v>
       </c>
       <c r="D41" s="23" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E41" s="20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F41" s="21">
         <v>1</v>
@@ -3325,10 +3325,10 @@
         <v>4</v>
       </c>
       <c r="D42" s="23" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E42" s="20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F42" s="21">
         <v>1</v>
@@ -3351,10 +3351,10 @@
         <v>4</v>
       </c>
       <c r="D43" s="29" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E43" s="20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F43" s="21">
         <v>1</v>
@@ -3377,10 +3377,10 @@
         <v>4</v>
       </c>
       <c r="D44" s="29" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E44" s="20" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F44" s="21">
         <v>1</v>
@@ -3403,10 +3403,10 @@
         <v>4</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E45" s="20" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F45" s="21">
         <v>1</v>
@@ -3429,10 +3429,10 @@
         <v>4</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E46" s="20" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F46" s="24">
         <v>1</v>
@@ -3455,10 +3455,10 @@
         <v>5</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E47" s="20" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F47" s="25">
         <v>1</v>
@@ -3481,10 +3481,10 @@
         <v>5</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E48" s="20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F48" s="21">
         <v>1</v>
@@ -3507,10 +3507,10 @@
         <v>5</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E49" s="20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F49" s="21">
         <v>1</v>
@@ -3533,10 +3533,10 @@
         <v>5</v>
       </c>
       <c r="D50" s="19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E50" s="20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F50" s="21">
         <v>1</v>
@@ -3559,10 +3559,10 @@
         <v>5</v>
       </c>
       <c r="D51" s="23" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E51" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F51" s="21">
         <v>1</v>
@@ -3585,10 +3585,10 @@
         <v>5</v>
       </c>
       <c r="D52" s="23" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E52" s="20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F52" s="21">
         <v>1</v>
@@ -3611,10 +3611,10 @@
         <v>5</v>
       </c>
       <c r="D53" s="23" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E53" s="20" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F53" s="21">
         <v>1</v>
@@ -3637,10 +3637,10 @@
         <v>5</v>
       </c>
       <c r="D54" s="23" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E54" s="20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F54" s="21">
         <v>1</v>
@@ -3663,10 +3663,10 @@
         <v>5</v>
       </c>
       <c r="D55" s="23" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E55" s="20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F55" s="21">
         <v>1</v>
@@ -3689,10 +3689,10 @@
         <v>5</v>
       </c>
       <c r="D56" s="23" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E56" s="20" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F56" s="24">
         <v>1</v>
@@ -3715,10 +3715,10 @@
         <v>6</v>
       </c>
       <c r="D57" s="30" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E57" s="20" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F57" s="25">
         <v>1</v>
@@ -3741,10 +3741,10 @@
         <v>6</v>
       </c>
       <c r="D58" s="30" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E58" s="20" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F58" s="21">
         <v>1</v>
@@ -3767,10 +3767,10 @@
         <v>6</v>
       </c>
       <c r="D59" s="30" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E59" s="20" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F59" s="21">
         <v>1</v>
@@ -3793,10 +3793,10 @@
         <v>6</v>
       </c>
       <c r="D60" s="30" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E60" s="20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F60" s="21">
         <v>1</v>
@@ -3819,10 +3819,10 @@
         <v>6</v>
       </c>
       <c r="D61" s="30" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E61" s="20" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F61" s="21">
         <v>1</v>
@@ -3845,10 +3845,10 @@
         <v>6</v>
       </c>
       <c r="D62" s="30" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E62" s="20" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F62" s="21">
         <v>1</v>
@@ -3871,10 +3871,10 @@
         <v>6</v>
       </c>
       <c r="D63" s="30" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E63" s="20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F63" s="21">
         <v>1</v>
@@ -3897,10 +3897,10 @@
         <v>6</v>
       </c>
       <c r="D64" s="30" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E64" s="20" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F64" s="21">
         <v>1</v>
@@ -3923,10 +3923,10 @@
         <v>6</v>
       </c>
       <c r="D65" s="30" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E65" s="20" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F65" s="21">
         <v>1</v>
@@ -3949,10 +3949,10 @@
         <v>6</v>
       </c>
       <c r="D66" s="30" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E66" s="20" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F66" s="24">
         <v>1</v>
@@ -3975,10 +3975,10 @@
         <v>7</v>
       </c>
       <c r="D67" s="19" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E67" s="20" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F67" s="25">
         <v>1</v>
@@ -4001,10 +4001,10 @@
         <v>7</v>
       </c>
       <c r="D68" s="19" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E68" s="20" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F68" s="21">
         <v>1</v>
@@ -4027,10 +4027,10 @@
         <v>7</v>
       </c>
       <c r="D69" s="19" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E69" s="20" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F69" s="21">
         <v>1</v>
@@ -4053,10 +4053,10 @@
         <v>7</v>
       </c>
       <c r="D70" s="19" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E70" s="20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F70" s="21">
         <v>1</v>
@@ -4079,10 +4079,10 @@
         <v>7</v>
       </c>
       <c r="D71" s="19" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E71" s="20" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F71" s="21">
         <v>1</v>
@@ -4105,10 +4105,10 @@
         <v>7</v>
       </c>
       <c r="D72" s="19" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E72" s="20" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F72" s="21">
         <v>1</v>
@@ -4131,10 +4131,10 @@
         <v>7</v>
       </c>
       <c r="D73" s="19" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E73" s="20" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F73" s="21">
         <v>1</v>
@@ -4157,10 +4157,10 @@
         <v>7</v>
       </c>
       <c r="D74" s="31" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E74" s="20" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F74" s="21">
         <v>1</v>
@@ -4183,10 +4183,10 @@
         <v>7</v>
       </c>
       <c r="D75" s="31" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E75" s="20" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F75" s="21">
         <v>1</v>
@@ -4209,10 +4209,10 @@
         <v>7</v>
       </c>
       <c r="D76" s="31" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E76" s="20" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F76" s="24">
         <v>1</v>
@@ -4235,10 +4235,10 @@
         <v>8</v>
       </c>
       <c r="D77" s="20" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E77" s="20" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F77" s="25">
         <v>1</v>
@@ -4261,10 +4261,10 @@
         <v>8</v>
       </c>
       <c r="D78" s="20" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E78" s="20" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F78" s="21">
         <v>1</v>
@@ -4287,10 +4287,10 @@
         <v>8</v>
       </c>
       <c r="D79" s="20" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E79" s="20" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F79" s="21">
         <v>1</v>
@@ -4313,10 +4313,10 @@
         <v>8</v>
       </c>
       <c r="D80" s="20" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E80" s="20" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F80" s="21">
         <v>1</v>
@@ -4339,10 +4339,10 @@
         <v>8</v>
       </c>
       <c r="D81" s="20" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E81" s="20" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F81" s="21">
         <v>1</v>
@@ -4365,10 +4365,10 @@
         <v>8</v>
       </c>
       <c r="D82" s="20" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E82" s="20" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F82" s="21">
         <v>1</v>
@@ -4391,10 +4391,10 @@
         <v>8</v>
       </c>
       <c r="D83" s="20" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E83" s="20" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F83" s="21">
         <v>1</v>
@@ -4417,10 +4417,10 @@
         <v>8</v>
       </c>
       <c r="D84" s="20" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E84" s="20" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F84" s="21">
         <v>1</v>
@@ -4443,10 +4443,10 @@
         <v>8</v>
       </c>
       <c r="D85" s="20" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E85" s="20" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F85" s="21">
         <v>1</v>
@@ -4469,10 +4469,10 @@
         <v>8</v>
       </c>
       <c r="D86" s="20" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E86" s="20" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F86" s="24">
         <v>1</v>
@@ -4495,10 +4495,10 @@
         <v>9</v>
       </c>
       <c r="D87" s="20" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E87" s="20" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F87" s="25">
         <v>1</v>
@@ -4521,10 +4521,10 @@
         <v>9</v>
       </c>
       <c r="D88" s="20" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E88" s="20" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F88" s="21">
         <v>1</v>
@@ -4547,10 +4547,10 @@
         <v>9</v>
       </c>
       <c r="D89" s="20" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E89" s="20" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F89" s="21">
         <v>1</v>
@@ -4573,10 +4573,10 @@
         <v>9</v>
       </c>
       <c r="D90" s="20" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E90" s="20" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F90" s="21">
         <v>1</v>
@@ -4599,10 +4599,10 @@
         <v>9</v>
       </c>
       <c r="D91" s="20" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E91" s="20" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F91" s="21">
         <v>1</v>
@@ -4625,10 +4625,10 @@
         <v>9</v>
       </c>
       <c r="D92" s="20" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E92" s="20" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F92" s="21">
         <v>1</v>
@@ -4651,10 +4651,10 @@
         <v>9</v>
       </c>
       <c r="D93" s="20" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E93" s="20" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F93" s="21">
         <v>1</v>
@@ -4677,10 +4677,10 @@
         <v>9</v>
       </c>
       <c r="D94" s="32" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E94" s="20" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F94" s="21">
         <v>1</v>
@@ -4703,10 +4703,10 @@
         <v>9</v>
       </c>
       <c r="D95" s="32" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E95" s="20" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F95" s="21">
         <v>1</v>
@@ -4729,10 +4729,10 @@
         <v>9</v>
       </c>
       <c r="D96" s="32" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E96" s="20" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F96" s="24">
         <v>1</v>
@@ -4755,10 +4755,10 @@
         <v>10</v>
       </c>
       <c r="D97" s="20" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E97" s="20" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F97" s="25">
         <v>1</v>
@@ -4781,10 +4781,10 @@
         <v>10</v>
       </c>
       <c r="D98" s="20" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E98" s="20" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F98" s="21">
         <v>1</v>
@@ -4807,10 +4807,10 @@
         <v>10</v>
       </c>
       <c r="D99" s="20" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E99" s="20" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F99" s="21">
         <v>1</v>
@@ -4833,10 +4833,10 @@
         <v>10</v>
       </c>
       <c r="D100" s="20" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E100" s="20" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F100" s="21">
         <v>1</v>
@@ -4859,10 +4859,10 @@
         <v>10</v>
       </c>
       <c r="D101" s="20" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E101" s="20" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F101" s="21">
         <v>1</v>
@@ -4885,10 +4885,10 @@
         <v>10</v>
       </c>
       <c r="D102" s="20" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E102" s="20" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F102" s="21">
         <v>1</v>
@@ -4911,10 +4911,10 @@
         <v>10</v>
       </c>
       <c r="D103" s="20" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E103" s="20" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F103" s="21">
         <v>1</v>
@@ -4937,10 +4937,10 @@
         <v>10</v>
       </c>
       <c r="D104" s="20" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E104" s="20" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F104" s="21">
         <v>1</v>
@@ -4963,10 +4963,10 @@
         <v>10</v>
       </c>
       <c r="D105" s="20" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E105" s="20" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F105" s="21">
         <v>1</v>
@@ -4989,10 +4989,10 @@
         <v>10</v>
       </c>
       <c r="D106" s="20" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E106" s="20" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F106" s="21">
         <v>1</v>
@@ -5034,19 +5034,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -5067,7 +5067,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>225</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>11</v>
@@ -5081,7 +5081,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -5101,7 +5101,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>226</v>
@@ -5284,8 +5284,8 @@
   <sheetPr/>
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -5364,7 +5364,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -5388,7 +5388,7 @@
     </row>
     <row r="6" ht="14.25" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>259</v>
@@ -5682,7 +5682,7 @@
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
-      <c r="H20" s="15" t="s">
+      <c r="H20" s="16" t="s">
         <v>293</v>
       </c>
     </row>
@@ -5755,7 +5755,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -5773,7 +5773,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>298</v>
